--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2126632.236903287</v>
+        <v>2123816.345000833</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2035305.191083922</v>
+        <v>1910957.488776705</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4916450.854058766</v>
+        <v>4916450.85405877</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>293.7076474845766</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -676,10 +676,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>27.99988831715153</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>93.52529077486058</v>
       </c>
       <c r="C4" t="n">
-        <v>105.2294269293238</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>7.286000274943794</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>175.4425433617046</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>137.586166377465</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>55.12369050152963</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>11.91263111498255</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>167.9683453503095</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>87.31077299481628</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -1381,13 +1381,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
         <v>408.9283142668997</v>
       </c>
       <c r="H11" t="n">
-        <v>319.7892792266962</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>31.15461412430889</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>162.5055525480066</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>370.5931644565752</v>
       </c>
       <c r="Y11" t="n">
-        <v>284.082987387401</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>87.12931977117839</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>130.3765665682599</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.1648087637851</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>246.2502782265954</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200.0472023894049</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>344.6671011350968</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -1624,10 +1624,10 @@
         <v>408.9283142668997</v>
       </c>
       <c r="H14" t="n">
-        <v>319.7892792266962</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>132.9900209556174</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>31.1546141243089</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.8155294883027</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1869771745492</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>138.6834019383682</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.5137285205242</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>130.3765665682599</v>
       </c>
       <c r="J16" t="n">
-        <v>26.8138966663509</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>120.5883158341028</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>98.51800908731899</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.1648087637851</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,19 +1846,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>375.8058777249198</v>
       </c>
       <c r="G17" t="n">
-        <v>198.9140064229454</v>
+        <v>408.9283142668997</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>162.5055525480066</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.8155294883027</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1869771745492</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -1943,7 +1943,7 @@
         <v>86.88315976700191</v>
       </c>
       <c r="I18" t="n">
-        <v>46.99939081380026</v>
+        <v>46.99939081380025</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.26241643898372</v>
+        <v>20.26241643898371</v>
       </c>
       <c r="S18" t="n">
-        <v>132.5595804773191</v>
+        <v>132.559580477319</v>
       </c>
       <c r="T18" t="n">
         <v>174.9922440788742</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5253946797129</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>153.5137285205242</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>233.1648087637851</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5818882760543</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>25.10658821619196</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>49.81343182486055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>169.7992848190597</v>
       </c>
       <c r="G20" t="n">
-        <v>408.9283142668997</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>319.7892792266962</v>
       </c>
       <c r="I20" t="n">
-        <v>132.9900209556175</v>
+        <v>132.9900209556174</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>162.5055525480066</v>
       </c>
       <c r="T20" t="n">
-        <v>18.82963316764008</v>
+        <v>220.8155294883027</v>
       </c>
       <c r="U20" t="n">
         <v>253.1869771745492</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -2149,7 +2149,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>86.88315976700191</v>
       </c>
       <c r="I21" t="n">
-        <v>46.99939081380026</v>
+        <v>46.99939081380025</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.26241643898373</v>
+        <v>20.26241643898371</v>
       </c>
       <c r="S21" t="n">
-        <v>132.5595804773191</v>
+        <v>132.559580477319</v>
       </c>
       <c r="T21" t="n">
         <v>174.9922440788742</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.1648087637851</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5818882760543</v>
+        <v>158.4912269821031</v>
       </c>
       <c r="V22" t="n">
-        <v>137.8036006644942</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,16 +2320,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>239.0152713735175</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>408.4323500200001</v>
@@ -2377,16 +2377,16 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>316.3370797618292</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>196.1071114281788</v>
       </c>
       <c r="T25" t="n">
-        <v>208.4957930138393</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>47.26903490908902</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>273.1537930308641</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,13 +2611,13 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1473000347972</v>
+        <v>192.8124284328543</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>162.6557545573788</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>196.1071114281788</v>
       </c>
       <c r="T28" t="n">
-        <v>172.6466844193508</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2806,13 +2806,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H29" t="n">
-        <v>314.7099853831353</v>
+        <v>85.47359921449589</v>
       </c>
       <c r="I29" t="n">
-        <v>62.58824660780935</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -2857,7 +2857,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>110.585143828612</v>
       </c>
       <c r="S31" t="n">
-        <v>196.1071114281788</v>
+        <v>129.5885511630335</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>67.19922743205257</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3031,13 +3031,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
@@ -3082,16 +3082,16 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T32" t="n">
-        <v>83.36588900836297</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>254.6865388113528</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.786554340597856</v>
+        <v>3.786554340597853</v>
       </c>
       <c r="S33" t="n">
         <v>127.6305556124798</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>32.82040904302259</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>196.1071114281788</v>
       </c>
       <c r="T34" t="n">
-        <v>232.2142445012334</v>
+        <v>171.9164031220953</v>
       </c>
       <c r="U34" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
@@ -3277,13 +3277,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>408.4323500200001</v>
       </c>
       <c r="H35" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>266.6123653753559</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>70.85275219390614</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.786554340597846</v>
+        <v>3.786554340597853</v>
       </c>
       <c r="S36" t="n">
         <v>127.6305556124798</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>10.06141800284083</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>127.0233469907108</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>371.1693017330498</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H38" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>266.6123653753559</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.786554340597846</v>
+        <v>3.786554340597853</v>
       </c>
       <c r="S39" t="n">
         <v>127.6305556124798</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>61.33125929348337</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>175.881652987556</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -3751,7 +3751,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U41" t="n">
-        <v>205.8375488363625</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>361.4517466212097</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.786554340597846</v>
+        <v>3.786554340597853</v>
       </c>
       <c r="S42" t="n">
         <v>127.6305556124798</v>
@@ -3903,25 +3903,25 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>151.8949021505431</v>
       </c>
       <c r="G43" t="n">
         <v>166.3029221927327</v>
       </c>
       <c r="H43" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>123.6862121416195</v>
       </c>
       <c r="J43" t="n">
-        <v>11.08509183685201</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>93.60668419351549</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>166.7621348780962</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -3994,10 +3994,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>113.8693593270194</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>38.60126140173783</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4073,10 +4073,10 @@
         <v>118.5388453083828</v>
       </c>
       <c r="H45" t="n">
-        <v>84.320299612958</v>
+        <v>84.32029961295801</v>
       </c>
       <c r="I45" t="n">
-        <v>37.8629456688208</v>
+        <v>37.86294566882081</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.786554340597831</v>
+        <v>3.78655434059786</v>
       </c>
       <c r="S45" t="n">
         <v>127.6305556124798</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U46" t="n">
-        <v>44.20965583477046</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>76.19311257242921</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>923.1474259518279</v>
+        <v>1993.419123243097</v>
       </c>
       <c r="C2" t="n">
-        <v>923.1474259518279</v>
+        <v>1600.243621746028</v>
       </c>
       <c r="D2" t="n">
-        <v>626.4730345532657</v>
+        <v>1214.802492962695</v>
       </c>
       <c r="E2" t="n">
-        <v>626.4730345532657</v>
+        <v>812.2189680792399</v>
       </c>
       <c r="F2" t="n">
-        <v>209.5785960832435</v>
+        <v>395.3245296092176</v>
       </c>
       <c r="G2" t="n">
-        <v>200.4562446116507</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H2" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I2" t="n">
         <v>62.11912770411553</v>
@@ -4366,16 +4366,16 @@
         <v>2422.196584426364</v>
       </c>
       <c r="V2" t="n">
-        <v>2080.089775129883</v>
+        <v>2393.913868954494</v>
       </c>
       <c r="W2" t="n">
-        <v>1709.09074009817</v>
+        <v>2393.913868954494</v>
       </c>
       <c r="X2" t="n">
-        <v>1319.638135031227</v>
+        <v>2393.913868954494</v>
       </c>
       <c r="Y2" t="n">
-        <v>923.1474259518279</v>
+        <v>2393.913868954494</v>
       </c>
     </row>
     <row r="3">
@@ -4415,19 +4415,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L3" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M3" t="n">
-        <v>1122.744905612751</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N3" t="n">
-        <v>1629.56928853388</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O3" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P3" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q3" t="n">
         <v>2380.454662679751</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>636.8490770607943</v>
+        <v>869.0961595639906</v>
       </c>
       <c r="C4" t="n">
-        <v>530.5567266271339</v>
+        <v>698.8910416299798</v>
       </c>
       <c r="D4" t="n">
-        <v>374.9236135296486</v>
+        <v>543.2579285324946</v>
       </c>
       <c r="E4" t="n">
-        <v>374.9236135296486</v>
+        <v>387.699116391697</v>
       </c>
       <c r="F4" t="n">
-        <v>217.5976787426216</v>
+        <v>230.37318160467</v>
       </c>
       <c r="G4" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
         <v>62.11912770411553</v>
@@ -4512,28 +4512,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S4" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U4" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V4" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W4" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X4" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y4" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1294.75984656959</v>
+        <v>2131.756240150632</v>
       </c>
       <c r="C5" t="n">
-        <v>1294.75984656959</v>
+        <v>1738.580738653563</v>
       </c>
       <c r="D5" t="n">
-        <v>1294.75984656959</v>
+        <v>1353.139609870231</v>
       </c>
       <c r="E5" t="n">
-        <v>892.1763216861347</v>
+        <v>950.5560849867752</v>
       </c>
       <c r="F5" t="n">
-        <v>475.2818832161124</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G5" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H5" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I5" t="n">
         <v>62.11912770411553</v>
@@ -4591,28 +4591,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R5" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S5" t="n">
-        <v>3060.603875253981</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T5" t="n">
-        <v>3060.603875253981</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U5" t="n">
-        <v>2804.85114568858</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V5" t="n">
-        <v>2462.744336392098</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W5" t="n">
-        <v>2091.745301360386</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X5" t="n">
-        <v>2091.745301360386</v>
+        <v>2928.741694941428</v>
       </c>
       <c r="Y5" t="n">
-        <v>1695.254592280987</v>
+        <v>2532.250985862029</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>378.9738643893075</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L6" t="n">
-        <v>862.5399502876207</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M6" t="n">
-        <v>1490.311599914302</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N6" t="n">
-        <v>2146.089571124861</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O6" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P6" t="n">
         <v>2146.089571124861</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>544.2778093373497</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C7" t="n">
-        <v>544.2778093373497</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D7" t="n">
-        <v>544.2778093373497</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E7" t="n">
-        <v>405.3018837035467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F7" t="n">
-        <v>247.9759489165196</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G7" t="n">
-        <v>247.9759489165196</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J7" t="n">
         <v>62.11912770411553</v>
@@ -4749,28 +4749,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S7" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T7" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U7" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="V7" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="W7" t="n">
-        <v>963.5661502456679</v>
+        <v>117.7996231602061</v>
       </c>
       <c r="X7" t="n">
-        <v>729.485828028651</v>
+        <v>117.7996231602061</v>
       </c>
       <c r="Y7" t="n">
-        <v>729.485828028651</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>902.7524032513907</v>
+        <v>2535.796644191037</v>
       </c>
       <c r="C8" t="n">
-        <v>902.7524032513907</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D8" t="n">
-        <v>902.7524032513907</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E8" t="n">
-        <v>500.1688783679352</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F8" t="n">
-        <v>487.314843938317</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G8" t="n">
-        <v>74.15208842632012</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H8" t="n">
-        <v>74.15208842632012</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I8" t="n">
         <v>62.11912770411553</v>
@@ -4831,25 +4831,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S8" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T8" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U8" t="n">
-        <v>2460.189498140842</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V8" t="n">
-        <v>2460.189498140842</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W8" t="n">
-        <v>2089.19046310913</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X8" t="n">
-        <v>1699.737858042186</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y8" t="n">
-        <v>1303.247148962788</v>
+        <v>2936.291389902433</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K9" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L9" t="n">
-        <v>978.5393418843826</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M9" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N9" t="n">
         <v>1458.313011372373</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>418.1810668505304</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C10" t="n">
-        <v>247.9759489165196</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D10" t="n">
-        <v>247.9759489165196</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E10" t="n">
-        <v>247.9759489165196</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F10" t="n">
-        <v>247.9759489165196</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G10" t="n">
-        <v>247.9759489165196</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H10" t="n">
-        <v>92.49739787801357</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I10" t="n">
         <v>92.49739787801357</v>
@@ -5004,10 +5004,10 @@
         <v>963.5661502456679</v>
       </c>
       <c r="X10" t="n">
-        <v>729.485828028651</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y10" t="n">
-        <v>506.3737668452943</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1981.774430695694</v>
+        <v>1682.473893702287</v>
       </c>
       <c r="C11" t="n">
-        <v>1588.598929198625</v>
+        <v>1682.473893702287</v>
       </c>
       <c r="D11" t="n">
-        <v>1203.157800415292</v>
+        <v>1297.032764918955</v>
       </c>
       <c r="E11" t="n">
-        <v>800.5742755318367</v>
+        <v>894.4492400354992</v>
       </c>
       <c r="F11" t="n">
-        <v>800.5742755318367</v>
+        <v>477.554801565477</v>
       </c>
       <c r="G11" t="n">
-        <v>387.515372231938</v>
+        <v>64.49589826557823</v>
       </c>
       <c r="H11" t="n">
         <v>64.49589826557823</v>
@@ -5041,10 +5041,10 @@
         <v>64.49589826557823</v>
       </c>
       <c r="J11" t="n">
-        <v>217.7845927599037</v>
+        <v>217.7845927599042</v>
       </c>
       <c r="K11" t="n">
-        <v>589.7144528346265</v>
+        <v>589.714452834627</v>
       </c>
       <c r="L11" t="n">
         <v>1099.097268220407</v>
@@ -5065,28 +5065,28 @@
         <v>3224.794913278912</v>
       </c>
       <c r="R11" t="n">
-        <v>3193.32560608264</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="S11" t="n">
-        <v>3029.178583306876</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="T11" t="n">
-        <v>3029.178583306876</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="U11" t="n">
-        <v>3029.178583306876</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="V11" t="n">
-        <v>3029.178583306876</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="W11" t="n">
-        <v>2658.179548275164</v>
+        <v>2853.795878247199</v>
       </c>
       <c r="X11" t="n">
-        <v>2268.72694320822</v>
+        <v>2479.459348493083</v>
       </c>
       <c r="Y11" t="n">
-        <v>1981.774430695694</v>
+        <v>2082.968639413684</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>64.49589826557823</v>
       </c>
       <c r="J12" t="n">
-        <v>64.49589826557823</v>
+        <v>177.6108804853056</v>
       </c>
       <c r="K12" t="n">
-        <v>64.49589826557823</v>
+        <v>177.6108804853056</v>
       </c>
       <c r="L12" t="n">
-        <v>548.0619841638915</v>
+        <v>177.6108804853056</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.632573989325</v>
+        <v>819.1814703107397</v>
       </c>
       <c r="N12" t="n">
-        <v>1189.632573989325</v>
+        <v>1188.800959896219</v>
       </c>
       <c r="O12" t="n">
-        <v>1719.110293121102</v>
+        <v>1718.278679027995</v>
       </c>
       <c r="P12" t="n">
-        <v>2135.131147009272</v>
+        <v>2134.299532916165</v>
       </c>
       <c r="Q12" t="n">
         <v>2375.616404902846</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>322.7104301098702</v>
+        <v>523.720452570717</v>
       </c>
       <c r="C13" t="n">
-        <v>152.5053121758594</v>
+        <v>353.5153346367062</v>
       </c>
       <c r="D13" t="n">
-        <v>64.49589826557823</v>
+        <v>353.5153346367062</v>
       </c>
       <c r="E13" t="n">
-        <v>64.49589826557823</v>
+        <v>353.5153346367062</v>
       </c>
       <c r="F13" t="n">
-        <v>64.49589826557823</v>
+        <v>196.1893998496791</v>
       </c>
       <c r="G13" t="n">
-        <v>64.49589826557823</v>
+        <v>196.1893998496791</v>
       </c>
       <c r="H13" t="n">
-        <v>64.49589826557823</v>
+        <v>196.1893998496791</v>
       </c>
       <c r="I13" t="n">
         <v>64.49589826557823</v>
@@ -5229,22 +5229,22 @@
         <v>1007.978116197364</v>
       </c>
       <c r="T13" t="n">
-        <v>1007.978116197364</v>
+        <v>772.4581073450559</v>
       </c>
       <c r="U13" t="n">
-        <v>1007.978116197364</v>
+        <v>772.4581073450559</v>
       </c>
       <c r="V13" t="n">
-        <v>741.9987710181884</v>
+        <v>523.720452570717</v>
       </c>
       <c r="W13" t="n">
-        <v>741.9987710181884</v>
+        <v>523.720452570717</v>
       </c>
       <c r="X13" t="n">
-        <v>507.9184488011715</v>
+        <v>523.720452570717</v>
       </c>
       <c r="Y13" t="n">
-        <v>507.9184488011715</v>
+        <v>523.720452570717</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1744.977569999552</v>
+        <v>2038.356853421172</v>
       </c>
       <c r="C14" t="n">
-        <v>1351.802068502483</v>
+        <v>1645.181351924103</v>
       </c>
       <c r="D14" t="n">
-        <v>1351.802068502483</v>
+        <v>1297.032764918955</v>
       </c>
       <c r="E14" t="n">
-        <v>1351.802068502483</v>
+        <v>894.4492400354992</v>
       </c>
       <c r="F14" t="n">
-        <v>934.9076300324605</v>
+        <v>477.554801565477</v>
       </c>
       <c r="G14" t="n">
-        <v>521.8487267325617</v>
+        <v>64.49589826557823</v>
       </c>
       <c r="H14" t="n">
-        <v>198.8292527662019</v>
+        <v>64.49589826557823</v>
       </c>
       <c r="I14" t="n">
         <v>64.49589826557823</v>
       </c>
       <c r="J14" t="n">
-        <v>217.7845927599037</v>
+        <v>217.7845927599039</v>
       </c>
       <c r="K14" t="n">
-        <v>589.7144528346266</v>
+        <v>589.7144528346267</v>
       </c>
       <c r="L14" t="n">
         <v>1099.097268220407</v>
@@ -5302,28 +5302,28 @@
         <v>3224.794913278912</v>
       </c>
       <c r="R14" t="n">
-        <v>3193.32560608264</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="S14" t="n">
-        <v>3193.32560608264</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="T14" t="n">
-        <v>2970.279616700516</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="U14" t="n">
-        <v>2714.535195312083</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="V14" t="n">
-        <v>2714.535195312083</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="W14" t="n">
-        <v>2343.53616028037</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="X14" t="n">
-        <v>2343.53616028037</v>
+        <v>2835.342308211968</v>
       </c>
       <c r="Y14" t="n">
-        <v>1947.045451200971</v>
+        <v>2438.851599132569</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>64.49589826557823</v>
       </c>
       <c r="J15" t="n">
-        <v>182.7561629990902</v>
+        <v>64.49589826557823</v>
       </c>
       <c r="K15" t="n">
-        <v>511.2894164059157</v>
+        <v>64.49589826557823</v>
       </c>
       <c r="L15" t="n">
-        <v>1006.680264889295</v>
+        <v>64.49589826557823</v>
       </c>
       <c r="M15" t="n">
-        <v>1006.680264889295</v>
+        <v>518.858831599874</v>
       </c>
       <c r="N15" t="n">
-        <v>1430.117831882899</v>
+        <v>1188.800959896219</v>
       </c>
       <c r="O15" t="n">
-        <v>1959.595551014676</v>
+        <v>1718.278679027995</v>
       </c>
       <c r="P15" t="n">
-        <v>2375.616404902846</v>
+        <v>2134.299532916165</v>
       </c>
       <c r="Q15" t="n">
         <v>2375.616404902846</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>378.338516200058</v>
+        <v>366.3945177836899</v>
       </c>
       <c r="C16" t="n">
-        <v>378.338516200058</v>
+        <v>196.1893998496791</v>
       </c>
       <c r="D16" t="n">
-        <v>378.338516200058</v>
+        <v>196.1893998496791</v>
       </c>
       <c r="E16" t="n">
-        <v>378.338516200058</v>
+        <v>196.1893998496791</v>
       </c>
       <c r="F16" t="n">
-        <v>378.338516200058</v>
+        <v>196.1893998496791</v>
       </c>
       <c r="G16" t="n">
-        <v>378.338516200058</v>
+        <v>196.1893998496791</v>
       </c>
       <c r="H16" t="n">
-        <v>223.2741439571043</v>
+        <v>196.1893998496791</v>
       </c>
       <c r="I16" t="n">
-        <v>91.58064237300339</v>
+        <v>64.49589826557823</v>
       </c>
       <c r="J16" t="n">
         <v>64.49589826557823</v>
@@ -5460,28 +5460,28 @@
         <v>1007.978116197364</v>
       </c>
       <c r="R16" t="n">
-        <v>886.1717365669573</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="S16" t="n">
-        <v>786.6585960747159</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="T16" t="n">
-        <v>786.6585960747159</v>
+        <v>772.4581073450559</v>
       </c>
       <c r="U16" t="n">
-        <v>786.6585960747159</v>
+        <v>772.4581073450559</v>
       </c>
       <c r="V16" t="n">
-        <v>786.6585960747159</v>
+        <v>506.4787621658801</v>
       </c>
       <c r="W16" t="n">
-        <v>786.6585960747159</v>
+        <v>506.4787621658801</v>
       </c>
       <c r="X16" t="n">
-        <v>786.6585960747159</v>
+        <v>506.4787621658801</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.5465348913592</v>
+        <v>506.4787621658801</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>682.3135755466565</v>
+        <v>2038.356853421172</v>
       </c>
       <c r="C17" t="n">
-        <v>682.3135755466565</v>
+        <v>1645.181351924103</v>
       </c>
       <c r="D17" t="n">
-        <v>682.3135755466565</v>
+        <v>1259.740223140771</v>
       </c>
       <c r="E17" t="n">
-        <v>682.3135755466565</v>
+        <v>857.1566982573152</v>
       </c>
       <c r="F17" t="n">
-        <v>265.4191370766342</v>
+        <v>477.554801565477</v>
       </c>
       <c r="G17" t="n">
         <v>64.49589826557823</v>
@@ -5515,52 +5515,52 @@
         <v>64.49589826557823</v>
       </c>
       <c r="J17" t="n">
-        <v>217.7845927599033</v>
+        <v>217.7845927599037</v>
       </c>
       <c r="K17" t="n">
-        <v>589.7144528346259</v>
+        <v>589.7144528346266</v>
       </c>
       <c r="L17" t="n">
-        <v>1099.097268220406</v>
+        <v>1099.097268220407</v>
       </c>
       <c r="M17" t="n">
         <v>1662.970820761778</v>
       </c>
       <c r="N17" t="n">
-        <v>2208.943955098711</v>
+        <v>2208.943955098712</v>
       </c>
       <c r="O17" t="n">
-        <v>2666.133276597098</v>
+        <v>2666.133276597099</v>
       </c>
       <c r="P17" t="n">
         <v>3028.957658493083</v>
       </c>
       <c r="Q17" t="n">
-        <v>3224.794913278911</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="R17" t="n">
-        <v>3224.794913278911</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="S17" t="n">
-        <v>3060.647890503147</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="T17" t="n">
-        <v>2837.601901121023</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="U17" t="n">
-        <v>2581.85747973259</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="V17" t="n">
-        <v>2239.750670436108</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="W17" t="n">
-        <v>1868.751635404396</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="X17" t="n">
-        <v>1479.299030337452</v>
+        <v>2835.342308211968</v>
       </c>
       <c r="Y17" t="n">
-        <v>1082.808321258053</v>
+        <v>2438.851599132569</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>64.49589826557823</v>
       </c>
       <c r="J18" t="n">
-        <v>182.7561629990902</v>
+        <v>64.49589826557823</v>
       </c>
       <c r="K18" t="n">
-        <v>511.2894164059156</v>
+        <v>64.49589826557823</v>
       </c>
       <c r="L18" t="n">
-        <v>1006.680264889295</v>
+        <v>64.49589826557823</v>
       </c>
       <c r="M18" t="n">
-        <v>1430.117831882899</v>
+        <v>706.0664880910124</v>
       </c>
       <c r="N18" t="n">
-        <v>1430.117831882899</v>
+        <v>1188.800959896219</v>
       </c>
       <c r="O18" t="n">
-        <v>1959.595551014676</v>
+        <v>1718.278679027995</v>
       </c>
       <c r="P18" t="n">
-        <v>2375.616404902846</v>
+        <v>2134.299532916165</v>
       </c>
       <c r="Q18" t="n">
         <v>2375.616404902846</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>234.701016199589</v>
+        <v>545.0936746690063</v>
       </c>
       <c r="C19" t="n">
-        <v>64.49589826557823</v>
+        <v>545.0936746690063</v>
       </c>
       <c r="D19" t="n">
-        <v>64.49589826557823</v>
+        <v>545.0936746690063</v>
       </c>
       <c r="E19" t="n">
-        <v>64.49589826557823</v>
+        <v>545.0936746690063</v>
       </c>
       <c r="F19" t="n">
-        <v>64.49589826557823</v>
+        <v>387.7677398819793</v>
       </c>
       <c r="G19" t="n">
-        <v>64.49589826557823</v>
+        <v>219.5602705085319</v>
       </c>
       <c r="H19" t="n">
         <v>64.49589826557823</v>
@@ -5676,19 +5676,19 @@
         <v>64.49589826557823</v>
       </c>
       <c r="K19" t="n">
-        <v>151.6355101603016</v>
+        <v>151.6355101603017</v>
       </c>
       <c r="L19" t="n">
-        <v>322.5511743388211</v>
+        <v>322.5511743388212</v>
       </c>
       <c r="M19" t="n">
-        <v>515.9997725551749</v>
+        <v>515.999772555175</v>
       </c>
       <c r="N19" t="n">
-        <v>706.1762485284989</v>
+        <v>706.1762485284991</v>
       </c>
       <c r="O19" t="n">
-        <v>875.334494956888</v>
+        <v>875.3344949568882</v>
       </c>
       <c r="P19" t="n">
         <v>1000.732727221787</v>
@@ -5700,25 +5700,25 @@
         <v>1007.978116197364</v>
       </c>
       <c r="S19" t="n">
-        <v>805.9738736386799</v>
+        <v>805.9738736386802</v>
       </c>
       <c r="T19" t="n">
-        <v>570.4538647863717</v>
+        <v>570.4538647863719</v>
       </c>
       <c r="U19" t="n">
-        <v>285.0176140024785</v>
+        <v>570.4538647863719</v>
       </c>
       <c r="V19" t="n">
-        <v>285.0176140024785</v>
+        <v>545.0936746690063</v>
       </c>
       <c r="W19" t="n">
-        <v>285.0176140024785</v>
+        <v>545.0936746690063</v>
       </c>
       <c r="X19" t="n">
-        <v>285.0176140024785</v>
+        <v>545.0936746690063</v>
       </c>
       <c r="Y19" t="n">
-        <v>234.701016199589</v>
+        <v>545.0936746690063</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1793.088311229958</v>
+        <v>1078.804284626055</v>
       </c>
       <c r="C20" t="n">
-        <v>1399.912809732888</v>
+        <v>1078.804284626055</v>
       </c>
       <c r="D20" t="n">
-        <v>1014.471680949556</v>
+        <v>693.363155842723</v>
       </c>
       <c r="E20" t="n">
-        <v>611.8881560661007</v>
+        <v>693.363155842723</v>
       </c>
       <c r="F20" t="n">
-        <v>611.8881560661007</v>
+        <v>521.8487267325617</v>
       </c>
       <c r="G20" t="n">
-        <v>198.8292527662019</v>
+        <v>521.8487267325617</v>
       </c>
       <c r="H20" t="n">
         <v>198.8292527662019</v>
@@ -5773,31 +5773,31 @@
         <v>3028.957658493083</v>
       </c>
       <c r="Q20" t="n">
-        <v>3224.794913278911</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="R20" t="n">
-        <v>3224.794913278911</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="S20" t="n">
-        <v>3224.794913278911</v>
+        <v>3060.647890503147</v>
       </c>
       <c r="T20" t="n">
-        <v>3205.775081796447</v>
+        <v>2837.601901121023</v>
       </c>
       <c r="U20" t="n">
-        <v>2950.030660408013</v>
+        <v>2581.85747973259</v>
       </c>
       <c r="V20" t="n">
-        <v>2950.030660408013</v>
+        <v>2239.750670436108</v>
       </c>
       <c r="W20" t="n">
-        <v>2579.0316253763</v>
+        <v>1868.751635404396</v>
       </c>
       <c r="X20" t="n">
-        <v>2189.579020309357</v>
+        <v>1479.299030337452</v>
       </c>
       <c r="Y20" t="n">
-        <v>1793.088311229958</v>
+        <v>1479.299030337452</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>64.49589826557823</v>
       </c>
       <c r="J21" t="n">
-        <v>64.49589826557823</v>
+        <v>177.6108804853056</v>
       </c>
       <c r="K21" t="n">
-        <v>64.49589826557823</v>
+        <v>506.1441338921311</v>
       </c>
       <c r="L21" t="n">
-        <v>559.8867467489574</v>
+        <v>1001.53498237551</v>
       </c>
       <c r="M21" t="n">
-        <v>1201.457336574391</v>
+        <v>1001.53498237551</v>
       </c>
       <c r="N21" t="n">
-        <v>1201.457336574391</v>
+        <v>1671.477110671855</v>
       </c>
       <c r="O21" t="n">
-        <v>1730.935055706168</v>
+        <v>1718.278679027995</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.955909594338</v>
+        <v>2134.299532916165</v>
       </c>
       <c r="Q21" t="n">
         <v>2375.616404902846</v>
@@ -5913,19 +5913,19 @@
         <v>64.49589826557823</v>
       </c>
       <c r="K22" t="n">
-        <v>151.6355101603016</v>
+        <v>151.6355101603017</v>
       </c>
       <c r="L22" t="n">
-        <v>322.5511743388211</v>
+        <v>322.5511743388212</v>
       </c>
       <c r="M22" t="n">
-        <v>515.9997725551749</v>
+        <v>515.999772555175</v>
       </c>
       <c r="N22" t="n">
-        <v>706.1762485284989</v>
+        <v>706.1762485284991</v>
       </c>
       <c r="O22" t="n">
-        <v>875.334494956888</v>
+        <v>875.3344949568882</v>
       </c>
       <c r="P22" t="n">
         <v>1000.732727221787</v>
@@ -5940,16 +5940,16 @@
         <v>1007.978116197364</v>
       </c>
       <c r="T22" t="n">
-        <v>772.4581073450556</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="U22" t="n">
-        <v>487.0218565611624</v>
+        <v>847.8859677305933</v>
       </c>
       <c r="V22" t="n">
-        <v>347.8263003344006</v>
+        <v>581.9066225514175</v>
       </c>
       <c r="W22" t="n">
-        <v>64.49589826557823</v>
+        <v>298.5762204825951</v>
       </c>
       <c r="X22" t="n">
         <v>64.49589826557823</v>
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1717.186616241676</v>
+        <v>1982.335120258586</v>
       </c>
       <c r="C23" t="n">
-        <v>1324.011114744607</v>
+        <v>1982.335120258586</v>
       </c>
       <c r="D23" t="n">
-        <v>1324.011114744607</v>
+        <v>1740.905553214629</v>
       </c>
       <c r="E23" t="n">
-        <v>921.4275898611513</v>
+        <v>1338.322028331173</v>
       </c>
       <c r="F23" t="n">
         <v>921.4275898611513</v>
@@ -6025,16 +6025,16 @@
         <v>3168.773180116325</v>
       </c>
       <c r="V23" t="n">
-        <v>2826.666370819844</v>
+        <v>3168.773180116325</v>
       </c>
       <c r="W23" t="n">
-        <v>2507.133967020016</v>
+        <v>3168.773180116325</v>
       </c>
       <c r="X23" t="n">
-        <v>2117.681361953073</v>
+        <v>2779.320575049382</v>
       </c>
       <c r="Y23" t="n">
-        <v>2117.681361953073</v>
+        <v>2382.829865969983</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J24" t="n">
-        <v>219.0418890481681</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K24" t="n">
-        <v>219.0418890481681</v>
+        <v>395.7003776100899</v>
       </c>
       <c r="L24" t="n">
-        <v>771.4743578797238</v>
+        <v>905.8728192384366</v>
       </c>
       <c r="M24" t="n">
-        <v>771.4743578797238</v>
+        <v>1614.008289530776</v>
       </c>
       <c r="N24" t="n">
-        <v>1509.74314095895</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="O24" t="n">
-        <v>2026.263423549931</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P24" t="n">
-        <v>2077.425419922113</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="Q24" t="n">
         <v>2352.277072610002</v>
@@ -6171,28 +6171,28 @@
         <v>1222.217555045145</v>
       </c>
       <c r="R25" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S25" t="n">
-        <v>912.4273982201044</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="T25" t="n">
-        <v>701.8255870950142</v>
+        <v>789.5697207730119</v>
       </c>
       <c r="U25" t="n">
-        <v>701.8255870950142</v>
+        <v>504.1457274264179</v>
       </c>
       <c r="V25" t="n">
-        <v>701.8255870950142</v>
+        <v>504.1457274264179</v>
       </c>
       <c r="W25" t="n">
-        <v>418.4951850261918</v>
+        <v>504.1457274264179</v>
       </c>
       <c r="X25" t="n">
-        <v>418.4951850261918</v>
+        <v>456.3992275182471</v>
       </c>
       <c r="Y25" t="n">
-        <v>418.4951850261918</v>
+        <v>233.2871663348905</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1269.229275930393</v>
+        <v>1701.172625711542</v>
       </c>
       <c r="C26" t="n">
-        <v>1269.229275930393</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="D26" t="n">
-        <v>883.788147147061</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E26" t="n">
-        <v>607.8752248936629</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F26" t="n">
-        <v>190.9807864236407</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G26" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H26" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I26" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J26" t="n">
-        <v>270.9233280874842</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K26" t="n">
-        <v>705.31081511305</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L26" t="n">
         <v>1292.177839612517</v>
@@ -6244,34 +6244,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P26" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130635</v>
       </c>
       <c r="Q26" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="R26" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="S26" t="n">
-        <v>3645.330499340869</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T26" t="n">
-        <v>3424.477523585819</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="U26" t="n">
-        <v>3168.773180116326</v>
+        <v>3229.717494865763</v>
       </c>
       <c r="V26" t="n">
-        <v>2826.666370819845</v>
+        <v>2887.610685569281</v>
       </c>
       <c r="W26" t="n">
-        <v>2455.667335788132</v>
+        <v>2887.610685569281</v>
       </c>
       <c r="X26" t="n">
-        <v>2066.214730721189</v>
+        <v>2498.158080502338</v>
       </c>
       <c r="Y26" t="n">
-        <v>1669.72402164179</v>
+        <v>2101.667371422939</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I27" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J27" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K27" t="n">
-        <v>446.9164895271324</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="L27" t="n">
-        <v>930.4825754254457</v>
+        <v>628.3937003794192</v>
       </c>
       <c r="M27" t="n">
-        <v>930.4825754254457</v>
+        <v>628.3937003794192</v>
       </c>
       <c r="N27" t="n">
-        <v>1668.751358504672</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O27" t="n">
-        <v>1946.655703893605</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P27" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q27" t="n">
         <v>2352.277072610002</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>231.5943446453487</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C28" t="n">
-        <v>231.5943446453487</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D28" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E28" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F28" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G28" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H28" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I28" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J28" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K28" t="n">
         <v>188.6896288950475</v>
@@ -6408,28 +6408,28 @@
         <v>1222.217555045145</v>
       </c>
       <c r="R28" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S28" t="n">
-        <v>912.4273982201044</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="T28" t="n">
-        <v>738.0368078975278</v>
+        <v>789.5697207730119</v>
       </c>
       <c r="U28" t="n">
-        <v>738.0368078975278</v>
+        <v>789.5697207730119</v>
       </c>
       <c r="V28" t="n">
-        <v>738.0368078975278</v>
+        <v>523.5903755938361</v>
       </c>
       <c r="W28" t="n">
-        <v>454.7064058287053</v>
+        <v>240.2599735250138</v>
       </c>
       <c r="X28" t="n">
-        <v>454.7064058287053</v>
+        <v>240.2599735250138</v>
       </c>
       <c r="Y28" t="n">
-        <v>231.5943446453487</v>
+        <v>240.2599735250138</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1669.724021641789</v>
+        <v>2287.970278274183</v>
       </c>
       <c r="C29" t="n">
-        <v>1276.54852014472</v>
+        <v>1894.794776777113</v>
       </c>
       <c r="D29" t="n">
-        <v>1276.54852014472</v>
+        <v>1509.353647993781</v>
       </c>
       <c r="E29" t="n">
-        <v>873.9649952612642</v>
+        <v>1106.770123110326</v>
       </c>
       <c r="F29" t="n">
-        <v>457.070556791242</v>
+        <v>689.8756846403033</v>
       </c>
       <c r="G29" t="n">
-        <v>457.070556791242</v>
+        <v>277.3177553271719</v>
       </c>
       <c r="H29" t="n">
-        <v>139.1816826668628</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I29" t="n">
         <v>75.96123154786345</v>
@@ -6481,34 +6481,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P29" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q29" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R29" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S29" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T29" t="n">
-        <v>3424.477523585818</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U29" t="n">
-        <v>3168.773180116325</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="V29" t="n">
-        <v>2826.666370819844</v>
+        <v>3455.954768096691</v>
       </c>
       <c r="W29" t="n">
-        <v>2455.667335788131</v>
+        <v>3084.955733064979</v>
       </c>
       <c r="X29" t="n">
-        <v>2066.214730721188</v>
+        <v>3084.955733064979</v>
       </c>
       <c r="Y29" t="n">
-        <v>1669.724021641789</v>
+        <v>2688.46502398558</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J30" t="n">
-        <v>75.96123154786345</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="K30" t="n">
-        <v>75.96123154786345</v>
+        <v>560.0314717468598</v>
       </c>
       <c r="L30" t="n">
-        <v>559.5273174461767</v>
+        <v>1112.463940578416</v>
       </c>
       <c r="M30" t="n">
-        <v>933.5352681264899</v>
+        <v>1820.599410870755</v>
       </c>
       <c r="N30" t="n">
-        <v>1671.804051205716</v>
+        <v>1820.599410870755</v>
       </c>
       <c r="O30" t="n">
-        <v>1671.804051205716</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P30" t="n">
-        <v>2077.425419922113</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="Q30" t="n">
         <v>2352.277072610002</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.1253973663866</v>
+        <v>521.945959020497</v>
       </c>
       <c r="C31" t="n">
-        <v>388.9202794323758</v>
+        <v>521.945959020497</v>
       </c>
       <c r="D31" t="n">
-        <v>233.2871663348905</v>
+        <v>521.945959020497</v>
       </c>
       <c r="E31" t="n">
-        <v>233.2871663348905</v>
+        <v>521.945959020497</v>
       </c>
       <c r="F31" t="n">
-        <v>75.96123154786345</v>
+        <v>521.945959020497</v>
       </c>
       <c r="G31" t="n">
-        <v>75.96123154786345</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="H31" t="n">
-        <v>75.96123154786345</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="I31" t="n">
         <v>75.96123154786345</v>
@@ -6648,25 +6648,25 @@
         <v>1110.515389561699</v>
       </c>
       <c r="S31" t="n">
-        <v>912.4273982201044</v>
+        <v>979.6178631343925</v>
       </c>
       <c r="T31" t="n">
-        <v>912.4273982201044</v>
+        <v>745.0580202038536</v>
       </c>
       <c r="U31" t="n">
-        <v>627.0034048735104</v>
+        <v>745.0580202038536</v>
       </c>
       <c r="V31" t="n">
-        <v>627.0034048735104</v>
+        <v>745.0580202038536</v>
       </c>
       <c r="W31" t="n">
-        <v>559.1253973663866</v>
+        <v>745.0580202038536</v>
       </c>
       <c r="X31" t="n">
-        <v>559.1253973663866</v>
+        <v>745.0580202038536</v>
       </c>
       <c r="Y31" t="n">
-        <v>559.1253973663866</v>
+        <v>521.945959020497</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1405.874282990127</v>
+        <v>2201.633309370652</v>
       </c>
       <c r="C32" t="n">
-        <v>1405.874282990127</v>
+        <v>1808.457807873582</v>
       </c>
       <c r="D32" t="n">
-        <v>1020.433154206794</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E32" t="n">
         <v>1020.433154206794</v>
@@ -6700,52 +6700,52 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K32" t="n">
-        <v>705.3108151130491</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L32" t="n">
         <v>1292.177839612517</v>
       </c>
       <c r="M32" t="n">
-        <v>1942.267504401618</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N32" t="n">
         <v>2575.851817818621</v>
       </c>
       <c r="O32" t="n">
-        <v>3115.76989136177</v>
+        <v>3115.769891361771</v>
       </c>
       <c r="P32" t="n">
         <v>3549.201349130635</v>
       </c>
       <c r="Q32" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R32" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S32" t="n">
         <v>3645.330499340868</v>
       </c>
       <c r="T32" t="n">
-        <v>3561.122530645552</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="U32" t="n">
-        <v>3305.41818717606</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="V32" t="n">
-        <v>2963.311377879578</v>
+        <v>3388.071369228391</v>
       </c>
       <c r="W32" t="n">
-        <v>2592.312342847866</v>
+        <v>3388.071369228391</v>
       </c>
       <c r="X32" t="n">
-        <v>2202.859737780922</v>
+        <v>2998.618764161447</v>
       </c>
       <c r="Y32" t="n">
-        <v>1806.369028701524</v>
+        <v>2602.128055082048</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J33" t="n">
-        <v>219.0418890481681</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K33" t="n">
-        <v>589.997147027437</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="L33" t="n">
-        <v>589.997147027437</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="M33" t="n">
-        <v>872.9695761732021</v>
+        <v>784.096701840203</v>
       </c>
       <c r="N33" t="n">
-        <v>1611.238359252428</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O33" t="n">
         <v>1611.238359252428</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.1131598741489</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C34" t="n">
-        <v>109.1131598741489</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D34" t="n">
         <v>75.96123154786345</v>
@@ -6867,10 +6867,10 @@
         <v>392.350128542232</v>
       </c>
       <c r="M34" t="n">
-        <v>620.3235645955793</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N34" t="n">
-        <v>844.2039549289401</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O34" t="n">
         <v>1044.49322140544</v>
@@ -6882,28 +6882,28 @@
         <v>1222.217555045145</v>
       </c>
       <c r="R34" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S34" t="n">
-        <v>912.4273982201041</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="T34" t="n">
-        <v>677.8675552895653</v>
+        <v>850.4766312569898</v>
       </c>
       <c r="U34" t="n">
-        <v>392.4435619429713</v>
+        <v>565.0526379103958</v>
       </c>
       <c r="V34" t="n">
-        <v>392.4435619429713</v>
+        <v>299.0732927312201</v>
       </c>
       <c r="W34" t="n">
-        <v>109.1131598741489</v>
+        <v>299.0732927312201</v>
       </c>
       <c r="X34" t="n">
-        <v>109.1131598741489</v>
+        <v>299.0732927312201</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.1131598741489</v>
+        <v>75.96123154786345</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1987.608190149231</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C35" t="n">
-        <v>1594.432688652162</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D35" t="n">
-        <v>1208.99155986883</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E35" t="n">
-        <v>806.4080349853741</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F35" t="n">
-        <v>806.4080349853741</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G35" t="n">
-        <v>393.8501056722426</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H35" t="n">
         <v>75.96123154786345</v>
@@ -6937,10 +6937,10 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J35" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874835</v>
       </c>
       <c r="K35" t="n">
-        <v>705.3108151130497</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L35" t="n">
         <v>1292.177839612517</v>
@@ -6964,25 +6964,25 @@
         <v>3798.061577393172</v>
       </c>
       <c r="S35" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="T35" t="n">
-        <v>3424.477523585818</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="U35" t="n">
-        <v>3168.773180116325</v>
+        <v>3542.35723392368</v>
       </c>
       <c r="V35" t="n">
-        <v>2826.666370819844</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="W35" t="n">
-        <v>2455.667335788131</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X35" t="n">
-        <v>2384.09889922863</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y35" t="n">
-        <v>1987.608190149231</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>75.96123154786345</v>
       </c>
       <c r="K36" t="n">
-        <v>395.7003776100899</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="L36" t="n">
-        <v>948.1328464416456</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="M36" t="n">
-        <v>948.1328464416456</v>
+        <v>784.096701840203</v>
       </c>
       <c r="N36" t="n">
-        <v>1686.401629520871</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O36" t="n">
-        <v>1686.401629520871</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P36" t="n">
-        <v>2152.588690190556</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q36" t="n">
         <v>2352.277072610002</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>411.8882101103898</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C37" t="n">
-        <v>241.683092176379</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D37" t="n">
-        <v>231.520043688661</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E37" t="n">
         <v>75.96123154786345</v>
@@ -7119,28 +7119,28 @@
         <v>1222.217555045145</v>
       </c>
       <c r="R37" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S37" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T37" t="n">
-        <v>677.8675552895655</v>
+        <v>987.6577121146066</v>
       </c>
       <c r="U37" t="n">
-        <v>677.8675552895655</v>
+        <v>859.3513010128785</v>
       </c>
       <c r="V37" t="n">
-        <v>411.8882101103898</v>
+        <v>593.3719558337027</v>
       </c>
       <c r="W37" t="n">
-        <v>411.8882101103898</v>
+        <v>310.0415537648803</v>
       </c>
       <c r="X37" t="n">
-        <v>411.8882101103898</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="Y37" t="n">
-        <v>411.8882101103898</v>
+        <v>75.96123154786345</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1269.229275930392</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C38" t="n">
-        <v>1269.229275930392</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D38" t="n">
-        <v>883.78814714706</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E38" t="n">
-        <v>883.78814714706</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F38" t="n">
-        <v>883.78814714706</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G38" t="n">
-        <v>508.8696605480199</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H38" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I38" t="n">
         <v>75.96123154786345</v>
@@ -7201,25 +7201,25 @@
         <v>3798.061577393172</v>
       </c>
       <c r="S38" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="T38" t="n">
-        <v>3424.477523585818</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="U38" t="n">
-        <v>3168.773180116325</v>
+        <v>3542.35723392368</v>
       </c>
       <c r="V38" t="n">
-        <v>2826.666370819844</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="W38" t="n">
-        <v>2455.667335788131</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X38" t="n">
-        <v>2066.214730721188</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y38" t="n">
-        <v>1669.724021641789</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J39" t="n">
-        <v>219.0418890481681</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="K39" t="n">
-        <v>589.997147027437</v>
+        <v>560.0314717468598</v>
       </c>
       <c r="L39" t="n">
-        <v>1142.429615858993</v>
+        <v>1112.463940578416</v>
       </c>
       <c r="M39" t="n">
-        <v>1142.429615858993</v>
+        <v>1820.599410870755</v>
       </c>
       <c r="N39" t="n">
-        <v>1294.106752377725</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="O39" t="n">
-        <v>1886.090011940317</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P39" t="n">
         <v>2352.277072610002</v>
@@ -7356,28 +7356,28 @@
         <v>1222.217555045145</v>
       </c>
       <c r="R40" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S40" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T40" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="U40" t="n">
-        <v>627.0034048735104</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="V40" t="n">
-        <v>361.0240596943346</v>
+        <v>956.2382098659697</v>
       </c>
       <c r="W40" t="n">
-        <v>361.0240596943346</v>
+        <v>672.9078077971474</v>
       </c>
       <c r="X40" t="n">
-        <v>299.0732927312201</v>
+        <v>438.8274855801304</v>
       </c>
       <c r="Y40" t="n">
-        <v>75.96123154786345</v>
+        <v>261.1692502391647</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2106.964254181899</v>
+        <v>1690.069815711877</v>
       </c>
       <c r="C41" t="n">
-        <v>1713.78875268483</v>
+        <v>1296.894314214808</v>
       </c>
       <c r="D41" t="n">
-        <v>1328.347623901498</v>
+        <v>911.4531854314753</v>
       </c>
       <c r="E41" t="n">
-        <v>925.7640990180421</v>
+        <v>508.8696605480199</v>
       </c>
       <c r="F41" t="n">
         <v>508.8696605480199</v>
@@ -7411,25 +7411,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J41" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874838</v>
       </c>
       <c r="K41" t="n">
-        <v>705.31081511305</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L41" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M41" t="n">
         <v>1942.267504401619</v>
       </c>
       <c r="N41" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O41" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P41" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130635</v>
       </c>
       <c r="Q41" t="n">
         <v>3798.061577393173</v>
@@ -7444,19 +7444,19 @@
         <v>3424.477523585818</v>
       </c>
       <c r="U41" t="n">
-        <v>3216.560807589492</v>
+        <v>3168.773180116326</v>
       </c>
       <c r="V41" t="n">
-        <v>2874.453998293011</v>
+        <v>2826.666370819845</v>
       </c>
       <c r="W41" t="n">
-        <v>2503.454963261298</v>
+        <v>2455.667335788132</v>
       </c>
       <c r="X41" t="n">
-        <v>2503.454963261298</v>
+        <v>2455.667335788132</v>
       </c>
       <c r="Y41" t="n">
-        <v>2106.964254181899</v>
+        <v>2090.564561423274</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J42" t="n">
-        <v>219.0418890481681</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="K42" t="n">
-        <v>589.997147027437</v>
+        <v>560.0314717468598</v>
       </c>
       <c r="L42" t="n">
-        <v>631.0211665505478</v>
+        <v>1112.463940578416</v>
       </c>
       <c r="M42" t="n">
-        <v>1339.156636842887</v>
+        <v>1740.235590205097</v>
       </c>
       <c r="N42" t="n">
-        <v>2077.425419922113</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="O42" t="n">
-        <v>2077.425419922113</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P42" t="n">
-        <v>2077.425419922113</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="Q42" t="n">
         <v>2352.277072610002</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3420.178969068274</v>
+        <v>677.8675552895653</v>
       </c>
       <c r="C43" t="n">
-        <v>3420.178969068274</v>
+        <v>677.8675552895653</v>
       </c>
       <c r="D43" t="n">
-        <v>3264.545855970789</v>
+        <v>677.8675552895653</v>
       </c>
       <c r="E43" t="n">
-        <v>3108.987043829991</v>
+        <v>522.3087431487678</v>
       </c>
       <c r="F43" t="n">
-        <v>3108.987043829991</v>
+        <v>368.8795490573102</v>
       </c>
       <c r="G43" t="n">
-        <v>2941.004294140362</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="H43" t="n">
-        <v>2787.937884177175</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="I43" t="n">
-        <v>2663.002316357357</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J43" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K43" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950474</v>
       </c>
       <c r="L43" t="n">
-        <v>2968.194150890259</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M43" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955795</v>
       </c>
       <c r="N43" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289402</v>
       </c>
       <c r="O43" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P43" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q43" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R43" t="n">
-        <v>3798.061577393173</v>
+        <v>1110.515389561699</v>
       </c>
       <c r="S43" t="n">
-        <v>3798.061577393173</v>
+        <v>912.4273982201041</v>
       </c>
       <c r="T43" t="n">
-        <v>3798.061577393173</v>
+        <v>677.8675552895653</v>
       </c>
       <c r="U43" t="n">
-        <v>3798.061577393173</v>
+        <v>677.8675552895653</v>
       </c>
       <c r="V43" t="n">
-        <v>3798.061577393173</v>
+        <v>677.8675552895653</v>
       </c>
       <c r="W43" t="n">
-        <v>3514.73117532435</v>
+        <v>677.8675552895653</v>
       </c>
       <c r="X43" t="n">
-        <v>3420.178969068274</v>
+        <v>677.8675552895653</v>
       </c>
       <c r="Y43" t="n">
-        <v>3420.178969068274</v>
+        <v>677.8675552895653</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2285.385259498541</v>
+        <v>2201.633309370652</v>
       </c>
       <c r="C44" t="n">
-        <v>1892.209758001472</v>
+        <v>1808.457807873582</v>
       </c>
       <c r="D44" t="n">
-        <v>1506.768629218139</v>
+        <v>1423.01667909025</v>
       </c>
       <c r="E44" t="n">
-        <v>1338.322028331173</v>
+        <v>1020.433154206794</v>
       </c>
       <c r="F44" t="n">
-        <v>921.4275898611513</v>
+        <v>603.5387157367721</v>
       </c>
       <c r="G44" t="n">
-        <v>508.8696605480199</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H44" t="n">
         <v>190.9807864236407</v>
       </c>
       <c r="I44" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786343</v>
       </c>
       <c r="J44" t="n">
         <v>270.9233280874835</v>
       </c>
       <c r="K44" t="n">
-        <v>705.3108151130497</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L44" t="n">
         <v>1292.177839612517</v>
       </c>
       <c r="M44" t="n">
-        <v>1942.267504401619</v>
+        <v>1942.267504401618</v>
       </c>
       <c r="N44" t="n">
         <v>2575.851817818621</v>
@@ -7669,31 +7669,31 @@
         <v>3549.201349130635</v>
       </c>
       <c r="Q44" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="R44" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="S44" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="T44" t="n">
-        <v>3424.477523585818</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="U44" t="n">
-        <v>3424.477523585818</v>
+        <v>3759.070404260103</v>
       </c>
       <c r="V44" t="n">
-        <v>3082.370714289337</v>
+        <v>3759.070404260103</v>
       </c>
       <c r="W44" t="n">
-        <v>3082.370714289337</v>
+        <v>3388.071369228391</v>
       </c>
       <c r="X44" t="n">
-        <v>3082.370714289337</v>
+        <v>2998.618764161447</v>
       </c>
       <c r="Y44" t="n">
-        <v>2685.880005209938</v>
+        <v>2602.128055082048</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2306.52085801419</v>
+        <v>860.7363532310205</v>
       </c>
       <c r="C45" t="n">
-        <v>2155.866627574283</v>
+        <v>710.0821227911127</v>
       </c>
       <c r="D45" t="n">
-        <v>2025.777660195763</v>
+        <v>579.9931554125931</v>
       </c>
       <c r="E45" t="n">
-        <v>1889.331169306651</v>
+        <v>443.5466645234808</v>
       </c>
       <c r="F45" t="n">
-        <v>1764.899363189782</v>
+        <v>319.1148584066126</v>
       </c>
       <c r="G45" t="n">
-        <v>1645.163155807578</v>
+        <v>199.3786510244077</v>
       </c>
       <c r="H45" t="n">
-        <v>1559.991135996509</v>
+        <v>114.206631213339</v>
       </c>
       <c r="I45" t="n">
-        <v>1521.745736331033</v>
+        <v>75.96123154786343</v>
       </c>
       <c r="J45" t="n">
-        <v>1521.745736331033</v>
+        <v>189.0762137675908</v>
       </c>
       <c r="K45" t="n">
-        <v>1892.700994310302</v>
+        <v>560.0314717468597</v>
       </c>
       <c r="L45" t="n">
-        <v>2445.133463141858</v>
+        <v>1112.463940578416</v>
       </c>
       <c r="M45" t="n">
-        <v>3153.268933434198</v>
+        <v>1820.599410870755</v>
       </c>
       <c r="N45" t="n">
-        <v>3153.268933434198</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="O45" t="n">
-        <v>3563.696485838282</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="P45" t="n">
-        <v>3563.696485838282</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q45" t="n">
-        <v>3798.061577393173</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="R45" t="n">
-        <v>3794.236775028932</v>
+        <v>2348.452270245762</v>
       </c>
       <c r="S45" t="n">
-        <v>3665.317021885013</v>
+        <v>2219.532517101843</v>
       </c>
       <c r="T45" t="n">
-        <v>3489.637587679142</v>
+        <v>2043.853082895972</v>
       </c>
       <c r="U45" t="n">
-        <v>3279.59573452528</v>
+        <v>1833.811229742109</v>
       </c>
       <c r="V45" t="n">
-        <v>3057.055732896346</v>
+        <v>1611.271228113176</v>
       </c>
       <c r="W45" t="n">
-        <v>2826.938487029633</v>
+        <v>1381.153982246463</v>
       </c>
       <c r="X45" t="n">
-        <v>2637.631409379645</v>
+        <v>1191.846904596475</v>
       </c>
       <c r="Y45" t="n">
-        <v>2458.317192455152</v>
+        <v>1012.532687671982</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>399.232759445061</v>
+        <v>75.96123154786343</v>
       </c>
       <c r="C46" t="n">
-        <v>229.0276415110502</v>
+        <v>75.96123154786343</v>
       </c>
       <c r="D46" t="n">
-        <v>229.0276415110502</v>
+        <v>75.96123154786343</v>
       </c>
       <c r="E46" t="n">
-        <v>229.0276415110502</v>
+        <v>75.96123154786343</v>
       </c>
       <c r="F46" t="n">
-        <v>229.0276415110502</v>
+        <v>75.96123154786343</v>
       </c>
       <c r="G46" t="n">
-        <v>229.0276415110502</v>
+        <v>75.96123154786343</v>
       </c>
       <c r="H46" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786343</v>
       </c>
       <c r="I46" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786343</v>
       </c>
       <c r="J46" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786343</v>
       </c>
       <c r="K46" t="n">
-        <v>188.6896288950475</v>
+        <v>188.6896288950474</v>
       </c>
       <c r="L46" t="n">
-        <v>392.3501285422321</v>
+        <v>392.350128542232</v>
       </c>
       <c r="M46" t="n">
-        <v>620.3235645955796</v>
+        <v>620.3235645955793</v>
       </c>
       <c r="N46" t="n">
-        <v>844.2039549289403</v>
+        <v>844.20395492894</v>
       </c>
       <c r="O46" t="n">
         <v>1044.49322140544</v>
@@ -7827,31 +7827,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q46" t="n">
-        <v>1222.217555045146</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="R46" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S46" t="n">
-        <v>912.4273982201044</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T46" t="n">
-        <v>912.4273982201044</v>
+        <v>987.6577121146064</v>
       </c>
       <c r="U46" t="n">
-        <v>867.7711802051847</v>
+        <v>702.2337187680123</v>
       </c>
       <c r="V46" t="n">
-        <v>867.7711802051847</v>
+        <v>436.2543735888365</v>
       </c>
       <c r="W46" t="n">
-        <v>584.4407781363623</v>
+        <v>152.9239715200142</v>
       </c>
       <c r="X46" t="n">
-        <v>584.4407781363623</v>
+        <v>75.96123154786343</v>
       </c>
       <c r="Y46" t="n">
-        <v>584.4407781363623</v>
+        <v>75.96123154786343</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>597.3159339866204</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8297,7 +8297,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>295.3946671166309</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
@@ -8306,13 +8306,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>551.1687275349758</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8531,19 +8531,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>569.9919810238538</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>77.24720226890443</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>71.06488347458492</v>
+        <v>458.7251326374791</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8789,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>326.8805546324634</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>78.44879861622813</v>
+        <v>551.3395799627419</v>
       </c>
       <c r="N15" t="n">
-        <v>498.7795976095388</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>83.96615271976252</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,19 +9242,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>506.1635127511821</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>71.064883474585</v>
+        <v>572.9826904351834</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9263,7 +9263,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>77.24720226890446</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>80.71399862161716</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>139.9618703597374</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>314.9363500010837</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>11.21154561935391</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>77.58468241415761</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9956,25 +9956,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>11.21154561935391</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>480.1816071071128</v>
       </c>
       <c r="O27" t="n">
-        <v>297.1737896134565</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>470.1729308173051</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>16.46232962463526</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,22 +10427,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>378.2178585601857</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>322.9058480558161</v>
       </c>
       <c r="O33" t="n">
-        <v>16.46232962463532</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>52.17609846406339</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>322.9058480558161</v>
       </c>
       <c r="O36" t="n">
-        <v>16.46232962463527</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>292.6935899432328</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10910,19 +10910,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>155.2572892683739</v>
+        <v>622.4202560251232</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.09263685995592</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11144,22 +11144,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>131.498750415616</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>703.5958324550811</v>
       </c>
       <c r="O42" t="n">
-        <v>16.46232962463527</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11387,13 +11387,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>2.04806046157394</v>
+        <v>344.7923240171547</v>
       </c>
       <c r="O45" t="n">
-        <v>431.0356148812863</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>25.905898199832</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>319.7892792266962</v>
       </c>
       <c r="I11" t="n">
         <v>132.9900209556174</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>31.1546141243089</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>162.5055525480066</v>
       </c>
       <c r="T11" t="n">
         <v>220.8155294883027</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>14.96491455969857</v>
       </c>
       <c r="Y11" t="n">
-        <v>108.4428146012039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>66.94746219533201</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.5253946797129</v>
@@ -23436,7 +23436,7 @@
         <v>153.5137285205242</v>
       </c>
       <c r="I13" t="n">
-        <v>130.3765665682599</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>26.8138966663509</v>
@@ -23469,19 +23469,19 @@
         <v>199.9842001330971</v>
       </c>
       <c r="T13" t="n">
-        <v>233.1648087637851</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.5818882760543</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>17.0692735007886</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>196.442595864878</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>36.91961636040213</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>319.7892792266962</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>132.9900209556174</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>31.1546141243089</v>
       </c>
       <c r="S14" t="n">
         <v>162.5055525480066</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.8155294883027</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1869771745492</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>44.67253656602003</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
@@ -23670,13 +23670,13 @@
         <v>166.5253946797129</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.5137285205242</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>26.8138966663509</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>120.5883158341028</v>
       </c>
       <c r="S16" t="n">
-        <v>101.4661910457781</v>
+        <v>199.9842001330971</v>
       </c>
       <c r="T16" t="n">
-        <v>233.1648087637851</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>282.5818882760543</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23721,7 +23721,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23734,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>36.91961636040219</v>
       </c>
       <c r="G17" t="n">
-        <v>210.0143078439543</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>319.7892792266962</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>31.15461412430892</v>
+        <v>31.1546141243089</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>162.5055525480066</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.8155294883027</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1869771745492</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
         <v>154.0767819665104</v>
@@ -23901,19 +23901,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5253946797129</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>153.5137285205242</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>130.3765665682599</v>
       </c>
       <c r="J19" t="n">
-        <v>26.81389666635091</v>
+        <v>26.8138966663509</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5818882760543</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>238.212963511192</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -23958,7 +23958,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0675087466625</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>242.9262092662623</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>408.9283142668997</v>
       </c>
       <c r="H20" t="n">
-        <v>319.7892792266962</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>31.15461412430892</v>
+        <v>31.1546141243089</v>
       </c>
       <c r="S20" t="n">
-        <v>162.5055525480066</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>201.9858963206626</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24150,7 +24150,7 @@
         <v>130.3765665682599</v>
       </c>
       <c r="J22" t="n">
-        <v>26.81389666635091</v>
+        <v>26.8138966663509</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24180,19 +24180,19 @@
         <v>199.9842001330971</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.1648087637851</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>124.0906612939511</v>
       </c>
       <c r="V22" t="n">
-        <v>125.5159510628898</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24208,16 +24208,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>142.5714461219814</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>50.95196491956619</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>23.71845148739413</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>184.4704840857577</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>125.4038966037568</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>60.33487160194298</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>20.70018394700946</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>59.56756008188259</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>229.2363861686395</v>
       </c>
       <c r="I29" t="n">
-        <v>51.2811127192101</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>11.08509183685201</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>66.51856026514528</v>
       </c>
       <c r="T31" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>213.2978706160816</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,13 +24919,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24970,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>135.2785569891366</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>83.99920239216399</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>121.2563729234878</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>60.29784137913808</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I35" t="n">
         <v>113.8693593270195</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>72.07337582816092</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>314.7053268223676</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>144.0153639636696</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -25335,7 +25335,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J37" t="n">
-        <v>11.08509183685201</v>
+        <v>11.08509183685202</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5697534131281</v>
+        <v>155.5464064224172</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>37.26304828695032</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>72.07337582816092</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25572,7 +25572,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J40" t="n">
-        <v>11.08509183685201</v>
+        <v>11.08509183685202</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T40" t="n">
         <v>232.2142445012334</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>170.4082597013634</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>44.99928758396706</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>408.4323500200001</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>47.3097511984347</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>31.0740553673952</v>
       </c>
     </row>
     <row r="42">
@@ -25791,25 +25791,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>3.857773288613714</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>11.08509183685202</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5697534131281</v>
@@ -25848,10 +25848,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>138.1328348013312</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>231.7955547565247</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1473000347972</v>
+        <v>214.5460386330594</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -26040,13 +26040,13 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I46" t="n">
         <v>123.6862121416195</v>
       </c>
       <c r="J46" t="n">
-        <v>11.085091836852</v>
+        <v>11.08509183685203</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T46" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>238.3600975783576</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>155.5464064224175</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>559438.6129747536</v>
+        <v>559438.6129747538</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>559438.6129747537</v>
+        <v>559438.6129747538</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>559438.6129747538</v>
+        <v>559438.6129747536</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>559438.6129747536</v>
+        <v>559438.6129747537</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>619164.008809115</v>
+        <v>619164.0088091149</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>619164.0088091152</v>
+        <v>619164.0088091149</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>619164.0088091149</v>
+        <v>619164.008809115</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>619164.0088091149</v>
+        <v>619164.008809115</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>619164.0088091148</v>
+        <v>619164.0088091149</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>619164.008809115</v>
+        <v>619164.0088091149</v>
       </c>
     </row>
   </sheetData>
@@ -26328,19 +26328,19 @@
         <v>351275.4081469383</v>
       </c>
       <c r="G2" t="n">
+        <v>351275.4081469382</v>
+      </c>
+      <c r="H2" t="n">
         <v>351275.4081469383</v>
-      </c>
-      <c r="H2" t="n">
-        <v>351275.4081469384</v>
       </c>
       <c r="I2" t="n">
         <v>388777.4008801421</v>
       </c>
       <c r="J2" t="n">
-        <v>388777.4008801423</v>
+        <v>388777.4008801422</v>
       </c>
       <c r="K2" t="n">
-        <v>388777.4008801422</v>
+        <v>388777.4008801421</v>
       </c>
       <c r="L2" t="n">
         <v>388777.4008801422</v>
@@ -26349,7 +26349,7 @@
         <v>388777.4008801423</v>
       </c>
       <c r="N2" t="n">
-        <v>388777.4008801421</v>
+        <v>388777.4008801425</v>
       </c>
       <c r="O2" t="n">
         <v>388777.4008801422</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>29417.59821721356</v>
+        <v>29417.59821721352</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.063792520248198e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>130978.3881307328</v>
+        <v>130978.3881307327</v>
       </c>
       <c r="J3" t="n">
-        <v>203163.7131126951</v>
+        <v>203163.713112695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>7403.759137484411</v>
+        <v>7403.759137484389</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>121801.4438820496</v>
       </c>
       <c r="E4" t="n">
-        <v>563.9316428891581</v>
+        <v>563.931642889158</v>
       </c>
       <c r="F4" t="n">
-        <v>563.9316428891582</v>
+        <v>563.931642889158</v>
       </c>
       <c r="G4" t="n">
         <v>563.931642889158</v>
@@ -26441,10 +26441,10 @@
         <v>636.825955991297</v>
       </c>
       <c r="J4" t="n">
-        <v>636.8259559912971</v>
+        <v>636.825955991297</v>
       </c>
       <c r="K4" t="n">
-        <v>636.8259559912971</v>
+        <v>636.825955991297</v>
       </c>
       <c r="L4" t="n">
         <v>636.825955991297</v>
@@ -26459,7 +26459,7 @@
         <v>636.825955991297</v>
       </c>
       <c r="P4" t="n">
-        <v>636.8259559912971</v>
+        <v>636.825955991297</v>
       </c>
     </row>
     <row r="5">
@@ -26484,16 +26484,16 @@
         <v>49574.41561916281</v>
       </c>
       <c r="G5" t="n">
-        <v>49574.4156191628</v>
+        <v>49574.41561916281</v>
       </c>
       <c r="H5" t="n">
-        <v>49574.4156191628</v>
+        <v>49574.41561916281</v>
       </c>
       <c r="I5" t="n">
         <v>60977.55903357454</v>
       </c>
       <c r="J5" t="n">
-        <v>60977.55903357455</v>
+        <v>60977.55903357454</v>
       </c>
       <c r="K5" t="n">
         <v>60977.55903357454</v>
@@ -26511,7 +26511,7 @@
         <v>60977.55903357454</v>
       </c>
       <c r="P5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357453</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24037.94449505712</v>
+        <v>24037.94449505716</v>
       </c>
       <c r="C6" t="n">
         <v>284257.2999148861</v>
@@ -26530,40 +26530,40 @@
         <v>284257.2999148861</v>
       </c>
       <c r="E6" t="n">
-        <v>271719.4626676729</v>
+        <v>271217.1609169132</v>
       </c>
       <c r="F6" t="n">
-        <v>301137.0608848864</v>
+        <v>300634.7591341266</v>
       </c>
       <c r="G6" t="n">
-        <v>301137.0608848863</v>
+        <v>300634.7591341265</v>
       </c>
       <c r="H6" t="n">
-        <v>301137.0608848865</v>
+        <v>300634.7591341266</v>
       </c>
       <c r="I6" t="n">
-        <v>196184.6277598435</v>
+        <v>195821.2222784662</v>
       </c>
       <c r="J6" t="n">
-        <v>123999.3027778814</v>
+        <v>123635.8972965038</v>
       </c>
       <c r="K6" t="n">
-        <v>327163.0158905764</v>
+        <v>326799.6104091988</v>
       </c>
       <c r="L6" t="n">
-        <v>327163.0158905764</v>
+        <v>326799.6104091989</v>
       </c>
       <c r="M6" t="n">
-        <v>319759.2567530921</v>
+        <v>319395.8512717147</v>
       </c>
       <c r="N6" t="n">
-        <v>327163.0158905763</v>
+        <v>326799.6104091991</v>
       </c>
       <c r="O6" t="n">
-        <v>327163.0158905764</v>
+        <v>326799.6104091989</v>
       </c>
       <c r="P6" t="n">
-        <v>327163.0158905764</v>
+        <v>326799.6104091989</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.57490538180515</v>
+        <v>25.5749053818051</v>
       </c>
       <c r="F3" t="n">
-        <v>25.5749053818051</v>
+        <v>25.57490538180511</v>
       </c>
       <c r="G3" t="n">
-        <v>25.57490538180502</v>
+        <v>25.57490538180511</v>
       </c>
       <c r="H3" t="n">
-        <v>25.57490538180501</v>
+        <v>25.57490538180511</v>
       </c>
       <c r="I3" t="n">
         <v>148.9460117980881</v>
@@ -26770,16 +26770,16 @@
         <v>148.946011798088</v>
       </c>
       <c r="M3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.946011798088</v>
       </c>
       <c r="N3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.946011798088</v>
       </c>
       <c r="O3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.946011798088</v>
       </c>
       <c r="P3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980879</v>
       </c>
     </row>
     <row r="4">
@@ -26804,22 +26804,22 @@
         <v>806.1987283197279</v>
       </c>
       <c r="G4" t="n">
-        <v>806.1987283197278</v>
+        <v>806.1987283197279</v>
       </c>
       <c r="H4" t="n">
-        <v>806.1987283197278</v>
+        <v>806.1987283197279</v>
       </c>
       <c r="I4" t="n">
         <v>949.5153943482931</v>
       </c>
       <c r="J4" t="n">
-        <v>949.5153943482933</v>
+        <v>949.5153943482931</v>
       </c>
       <c r="K4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="L4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="M4" t="n">
         <v>949.5153943482931</v>
@@ -26831,7 +26831,7 @@
         <v>949.5153943482932</v>
       </c>
       <c r="P4" t="n">
-        <v>949.5153943482932</v>
+        <v>949.5153943482929</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.57490538180515</v>
+        <v>25.5749053818051</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>123.3711064162831</v>
+        <v>123.371106416283</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.117825681904591e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>143.3166660285652</v>
+        <v>143.3166660285651</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>29.70963201828386</v>
+        <v>29.70963201828377</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.117825681904591e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>87.87907001092236</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>310.6858528863652</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>89.83064772952768</v>
       </c>
       <c r="C4" t="n">
-        <v>63.27363982534685</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>157.5624192334161</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>210.1155356545692</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27782,22 +27782,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>16.41705764192449</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27836,13 +27836,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>165.7572500699934</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.0411146234773</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>224.5574566382954</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96.04516550957199</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1028136899771061</v>
+        <v>0.1028136899771058</v>
       </c>
       <c r="H11" t="n">
-        <v>1.052940702478038</v>
+        <v>1.052940702478036</v>
       </c>
       <c r="I11" t="n">
-        <v>3.963724782842385</v>
+        <v>3.963724782842377</v>
       </c>
       <c r="J11" t="n">
-        <v>8.726183419694413</v>
+        <v>8.726183419694395</v>
       </c>
       <c r="K11" t="n">
-        <v>13.07828691642532</v>
+        <v>13.07828691642529</v>
       </c>
       <c r="L11" t="n">
-        <v>16.22477138106218</v>
+        <v>16.22477138106214</v>
       </c>
       <c r="M11" t="n">
-        <v>18.05318434019254</v>
+        <v>18.0531843401925</v>
       </c>
       <c r="N11" t="n">
-        <v>18.34530373683999</v>
+        <v>18.34530373683995</v>
       </c>
       <c r="O11" t="n">
-        <v>17.32295010713014</v>
+        <v>17.32295010713011</v>
       </c>
       <c r="P11" t="n">
-        <v>14.78473713582033</v>
+        <v>14.7847371358203</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.10272186351522</v>
+        <v>11.1027218635152</v>
       </c>
       <c r="R11" t="n">
-        <v>6.458370453024394</v>
+        <v>6.458370453024381</v>
       </c>
       <c r="S11" t="n">
-        <v>2.342866960353307</v>
+        <v>2.342866960353302</v>
       </c>
       <c r="T11" t="n">
-        <v>0.450066927874782</v>
+        <v>0.4500669278747811</v>
       </c>
       <c r="U11" t="n">
-        <v>0.008225095198168483</v>
+        <v>0.008225095198168466</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0550101738401092</v>
+        <v>0.05501017384010908</v>
       </c>
       <c r="H12" t="n">
-        <v>0.53128246840316</v>
+        <v>0.5312824684031588</v>
       </c>
       <c r="I12" t="n">
-        <v>1.893990634407269</v>
+        <v>1.893990634407265</v>
       </c>
       <c r="J12" t="n">
-        <v>5.197255064428914</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -31849,31 +31849,31 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>13.93832343308381</v>
+        <v>13.93832343308378</v>
       </c>
       <c r="N12" t="n">
-        <v>14.30722937958173</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>13.08831973817721</v>
+        <v>13.08831973817718</v>
       </c>
       <c r="P12" t="n">
-        <v>10.50453047653805</v>
+        <v>10.50453047653802</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.022000436151483</v>
+        <v>7.022000436151469</v>
       </c>
       <c r="R12" t="n">
-        <v>3.415456231932395</v>
+        <v>3.415456231932388</v>
       </c>
       <c r="S12" t="n">
-        <v>1.0217898518108</v>
+        <v>1.021789851810798</v>
       </c>
       <c r="T12" t="n">
-        <v>0.221729604206405</v>
+        <v>0.2217296042064045</v>
       </c>
       <c r="U12" t="n">
-        <v>0.003619090384217712</v>
+        <v>0.003619090384217704</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04611868183604207</v>
+        <v>0.04611868183604197</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4100370075968107</v>
+        <v>0.4100370075968099</v>
       </c>
       <c r="I13" t="n">
-        <v>1.386914541032975</v>
+        <v>1.386914541032972</v>
       </c>
       <c r="J13" t="n">
-        <v>3.260590805808175</v>
+        <v>3.260590805808167</v>
       </c>
       <c r="K13" t="n">
-        <v>5.35815230786016</v>
+        <v>5.358152307860149</v>
       </c>
       <c r="L13" t="n">
-        <v>6.856590206787565</v>
+        <v>6.856590206787551</v>
       </c>
       <c r="M13" t="n">
-        <v>7.229313008171576</v>
+        <v>7.229313008171561</v>
       </c>
       <c r="N13" t="n">
-        <v>7.057416103146334</v>
+        <v>7.057416103146319</v>
       </c>
       <c r="O13" t="n">
-        <v>6.518666047152568</v>
+        <v>6.518666047152553</v>
       </c>
       <c r="P13" t="n">
-        <v>5.577844937697304</v>
+        <v>5.577844937697293</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.861810712652578</v>
+        <v>3.86181071265257</v>
       </c>
       <c r="R13" t="n">
-        <v>2.073663639646037</v>
+        <v>2.073663639646032</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8037228461790238</v>
+        <v>0.8037228461790221</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1970525496630888</v>
+        <v>0.1970525496630884</v>
       </c>
       <c r="U13" t="n">
-        <v>0.002515564463784116</v>
+        <v>0.002515564463784111</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1028136899771058</v>
+        <v>0.1028136899771059</v>
       </c>
       <c r="H14" t="n">
         <v>1.052940702478036</v>
       </c>
       <c r="I14" t="n">
-        <v>3.963724782842377</v>
+        <v>3.963724782842378</v>
       </c>
       <c r="J14" t="n">
-        <v>8.726183419694395</v>
+        <v>8.726183419694397</v>
       </c>
       <c r="K14" t="n">
         <v>13.07828691642529</v>
       </c>
       <c r="L14" t="n">
-        <v>16.22477138106214</v>
+        <v>16.22477138106215</v>
       </c>
       <c r="M14" t="n">
-        <v>18.0531843401925</v>
+        <v>18.05318434019251</v>
       </c>
       <c r="N14" t="n">
-        <v>18.34530373683995</v>
+        <v>18.34530373683996</v>
       </c>
       <c r="O14" t="n">
         <v>17.32295010713011</v>
       </c>
       <c r="P14" t="n">
-        <v>14.7847371358203</v>
+        <v>14.78473713582031</v>
       </c>
       <c r="Q14" t="n">
         <v>11.1027218635152</v>
       </c>
       <c r="R14" t="n">
-        <v>6.458370453024381</v>
+        <v>6.458370453024383</v>
       </c>
       <c r="S14" t="n">
-        <v>2.342866960353302</v>
+        <v>2.342866960353303</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4500669278747811</v>
+        <v>0.4500669278747812</v>
       </c>
       <c r="U14" t="n">
-        <v>0.008225095198168466</v>
+        <v>0.008225095198168468</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05501017384010908</v>
+        <v>0.0550101738401091</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5312824684031588</v>
+        <v>0.531282468403159</v>
       </c>
       <c r="I15" t="n">
         <v>1.893990634407265</v>
       </c>
       <c r="J15" t="n">
-        <v>5.197255064428903</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>8.882936711716212</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>11.94420463137983</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>13.93832343308378</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>14.3072293795817</v>
+        <v>14.30722937958171</v>
       </c>
       <c r="O15" t="n">
-        <v>13.08831973817718</v>
+        <v>13.08831973817719</v>
       </c>
       <c r="P15" t="n">
-        <v>10.50453047653802</v>
+        <v>10.50453047653803</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.022000436151469</v>
+        <v>7.022000436151471</v>
       </c>
       <c r="R15" t="n">
-        <v>3.415456231932388</v>
+        <v>3.415456231932389</v>
       </c>
       <c r="S15" t="n">
         <v>1.021789851810798</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2217296042064045</v>
+        <v>0.2217296042064046</v>
       </c>
       <c r="U15" t="n">
-        <v>0.003619090384217704</v>
+        <v>0.003619090384217705</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,43 +32147,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04611868183604197</v>
+        <v>0.04611868183604199</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4100370075968099</v>
+        <v>0.41003700759681</v>
       </c>
       <c r="I16" t="n">
         <v>1.386914541032972</v>
       </c>
       <c r="J16" t="n">
-        <v>3.260590805808167</v>
+        <v>3.260590805808168</v>
       </c>
       <c r="K16" t="n">
-        <v>5.358152307860149</v>
+        <v>5.35815230786015</v>
       </c>
       <c r="L16" t="n">
-        <v>6.856590206787551</v>
+        <v>6.856590206787553</v>
       </c>
       <c r="M16" t="n">
-        <v>7.229313008171561</v>
+        <v>7.229313008171563</v>
       </c>
       <c r="N16" t="n">
-        <v>7.057416103146319</v>
+        <v>7.057416103146322</v>
       </c>
       <c r="O16" t="n">
-        <v>6.518666047152553</v>
+        <v>6.518666047152555</v>
       </c>
       <c r="P16" t="n">
-        <v>5.577844937697293</v>
+        <v>5.577844937697295</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.86181071265257</v>
+        <v>3.861810712652571</v>
       </c>
       <c r="R16" t="n">
-        <v>2.073663639646032</v>
+        <v>2.073663639646033</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8037228461790221</v>
+        <v>0.8037228461790223</v>
       </c>
       <c r="T16" t="n">
         <v>0.1970525496630884</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1028136899771055</v>
+        <v>0.1028136899771059</v>
       </c>
       <c r="H17" t="n">
-        <v>1.052940702478032</v>
+        <v>1.052940702478036</v>
       </c>
       <c r="I17" t="n">
-        <v>3.963724782842364</v>
+        <v>3.963724782842378</v>
       </c>
       <c r="J17" t="n">
-        <v>8.726183419694367</v>
+        <v>8.726183419694397</v>
       </c>
       <c r="K17" t="n">
-        <v>13.07828691642525</v>
+        <v>13.07828691642529</v>
       </c>
       <c r="L17" t="n">
-        <v>16.22477138106209</v>
+        <v>16.22477138106215</v>
       </c>
       <c r="M17" t="n">
-        <v>18.05318434019244</v>
+        <v>18.05318434019251</v>
       </c>
       <c r="N17" t="n">
-        <v>18.3453037368399</v>
+        <v>18.34530373683996</v>
       </c>
       <c r="O17" t="n">
-        <v>17.32295010713005</v>
+        <v>17.32295010713011</v>
       </c>
       <c r="P17" t="n">
-        <v>14.78473713582026</v>
+        <v>14.78473713582031</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.10272186351516</v>
+        <v>11.1027218635152</v>
       </c>
       <c r="R17" t="n">
-        <v>6.458370453024361</v>
+        <v>6.458370453024383</v>
       </c>
       <c r="S17" t="n">
-        <v>2.342866960353295</v>
+        <v>2.342866960353303</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4500669278747796</v>
+        <v>0.4500669278747812</v>
       </c>
       <c r="U17" t="n">
-        <v>0.00822509519816844</v>
+        <v>0.008225095198168468</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05501017384010891</v>
+        <v>0.0550101738401091</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5312824684031572</v>
+        <v>0.531282468403159</v>
       </c>
       <c r="I18" t="n">
-        <v>1.893990634407259</v>
+        <v>1.893990634407265</v>
       </c>
       <c r="J18" t="n">
-        <v>5.197255064428886</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>8.882936711716184</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>11.94420463137979</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>13.93832343308373</v>
+        <v>13.93832343308378</v>
       </c>
       <c r="N18" t="n">
-        <v>14.30722937958166</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>13.08831973817714</v>
+        <v>13.08831973817719</v>
       </c>
       <c r="P18" t="n">
-        <v>10.50453047653799</v>
+        <v>10.50453047653803</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>7.022000436151471</v>
       </c>
       <c r="R18" t="n">
-        <v>3.415456231932377</v>
+        <v>3.415456231932389</v>
       </c>
       <c r="S18" t="n">
-        <v>1.021789851810794</v>
+        <v>1.021789851810798</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2217296042064038</v>
+        <v>0.2217296042064046</v>
       </c>
       <c r="U18" t="n">
-        <v>0.003619090384217693</v>
+        <v>0.003619090384217705</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04611868183604183</v>
+        <v>0.04611868183604199</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4100370075968086</v>
+        <v>0.41003700759681</v>
       </c>
       <c r="I19" t="n">
-        <v>1.386914541032968</v>
+        <v>1.386914541032972</v>
       </c>
       <c r="J19" t="n">
-        <v>3.260590805808157</v>
+        <v>3.260590805808168</v>
       </c>
       <c r="K19" t="n">
-        <v>5.358152307860132</v>
+        <v>5.35815230786015</v>
       </c>
       <c r="L19" t="n">
-        <v>6.856590206787529</v>
+        <v>6.856590206787553</v>
       </c>
       <c r="M19" t="n">
-        <v>7.229313008171538</v>
+        <v>7.229313008171563</v>
       </c>
       <c r="N19" t="n">
-        <v>7.057416103146297</v>
+        <v>7.057416103146322</v>
       </c>
       <c r="O19" t="n">
-        <v>6.518666047152533</v>
+        <v>6.518666047152555</v>
       </c>
       <c r="P19" t="n">
-        <v>5.577844937697275</v>
+        <v>5.577844937697295</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.861810712652558</v>
+        <v>3.861810712652571</v>
       </c>
       <c r="R19" t="n">
-        <v>2.073663639646026</v>
+        <v>2.073663639646033</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8037228461790196</v>
+        <v>0.8037228461790223</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1970525496630878</v>
+        <v>0.1970525496630884</v>
       </c>
       <c r="U19" t="n">
-        <v>0.002515564463784103</v>
+        <v>0.002515564463784111</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1028136899771055</v>
+        <v>0.1028136899771059</v>
       </c>
       <c r="H20" t="n">
-        <v>1.052940702478032</v>
+        <v>1.052940702478036</v>
       </c>
       <c r="I20" t="n">
-        <v>3.963724782842363</v>
+        <v>3.963724782842378</v>
       </c>
       <c r="J20" t="n">
-        <v>8.726183419694364</v>
+        <v>8.726183419694397</v>
       </c>
       <c r="K20" t="n">
-        <v>13.07828691642524</v>
+        <v>13.07828691642529</v>
       </c>
       <c r="L20" t="n">
-        <v>16.22477138106209</v>
+        <v>16.22477138106215</v>
       </c>
       <c r="M20" t="n">
-        <v>18.05318434019243</v>
+        <v>18.05318434019251</v>
       </c>
       <c r="N20" t="n">
-        <v>18.34530373683989</v>
+        <v>18.34530373683996</v>
       </c>
       <c r="O20" t="n">
-        <v>17.32295010713004</v>
+        <v>17.32295010713011</v>
       </c>
       <c r="P20" t="n">
-        <v>14.78473713582025</v>
+        <v>14.78473713582031</v>
       </c>
       <c r="Q20" t="n">
-        <v>11.10272186351516</v>
+        <v>11.1027218635152</v>
       </c>
       <c r="R20" t="n">
-        <v>6.458370453024358</v>
+        <v>6.458370453024383</v>
       </c>
       <c r="S20" t="n">
-        <v>2.342866960353293</v>
+        <v>2.342866960353303</v>
       </c>
       <c r="T20" t="n">
-        <v>0.4500669278747795</v>
+        <v>0.4500669278747812</v>
       </c>
       <c r="U20" t="n">
-        <v>0.008225095198168436</v>
+        <v>0.008225095198168468</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.05501017384010888</v>
+        <v>0.0550101738401091</v>
       </c>
       <c r="H21" t="n">
-        <v>0.531282468403157</v>
+        <v>0.531282468403159</v>
       </c>
       <c r="I21" t="n">
-        <v>1.893990634407258</v>
+        <v>1.893990634407265</v>
       </c>
       <c r="J21" t="n">
-        <v>5.197255064428885</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>8.882936711716178</v>
+        <v>8.882936711716214</v>
       </c>
       <c r="L21" t="n">
-        <v>11.94420463137978</v>
+        <v>11.94420463137983</v>
       </c>
       <c r="M21" t="n">
-        <v>13.93832343308373</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>14.30722937958171</v>
       </c>
       <c r="O21" t="n">
-        <v>13.08831973817713</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>10.50453047653798</v>
+        <v>10.50453047653803</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.022000436151443</v>
+        <v>7.022000436151471</v>
       </c>
       <c r="R21" t="n">
-        <v>3.415456231932376</v>
+        <v>3.415456231932389</v>
       </c>
       <c r="S21" t="n">
-        <v>1.021789851810794</v>
+        <v>1.021789851810798</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2217296042064037</v>
+        <v>0.2217296042064046</v>
       </c>
       <c r="U21" t="n">
-        <v>0.003619090384217691</v>
+        <v>0.003619090384217705</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04611868183604181</v>
+        <v>0.04611868183604199</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4100370075968084</v>
+        <v>0.41003700759681</v>
       </c>
       <c r="I22" t="n">
-        <v>1.386914541032967</v>
+        <v>1.386914541032972</v>
       </c>
       <c r="J22" t="n">
-        <v>3.260590805808156</v>
+        <v>3.260590805808168</v>
       </c>
       <c r="K22" t="n">
-        <v>5.358152307860129</v>
+        <v>5.35815230786015</v>
       </c>
       <c r="L22" t="n">
-        <v>6.856590206787526</v>
+        <v>6.856590206787553</v>
       </c>
       <c r="M22" t="n">
-        <v>7.229313008171535</v>
+        <v>7.229313008171563</v>
       </c>
       <c r="N22" t="n">
-        <v>7.057416103146294</v>
+        <v>7.057416103146322</v>
       </c>
       <c r="O22" t="n">
-        <v>6.51866604715253</v>
+        <v>6.518666047152555</v>
       </c>
       <c r="P22" t="n">
-        <v>5.577844937697273</v>
+        <v>5.577844937697295</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.861810712652556</v>
+        <v>3.861810712652571</v>
       </c>
       <c r="R22" t="n">
-        <v>2.073663639646025</v>
+        <v>2.073663639646033</v>
       </c>
       <c r="S22" t="n">
-        <v>0.8037228461790192</v>
+        <v>0.8037228461790223</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1970525496630877</v>
+        <v>0.1970525496630884</v>
       </c>
       <c r="U22" t="n">
-        <v>0.002515564463784101</v>
+        <v>0.002515564463784111</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,13 +32788,13 @@
         <v>11.03043577938671</v>
       </c>
       <c r="J24" t="n">
-        <v>30.26835886926996</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>51.73344638085103</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>69.56200296287123</v>
+        <v>26.87510679801352</v>
       </c>
       <c r="M24" t="n">
         <v>81.175576429958</v>
@@ -32806,10 +32806,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>61.17746661948264</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.89551629595807</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>19.89131833031826</v>
@@ -33028,25 +33028,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>51.73344638085103</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>69.56200296287123</v>
       </c>
       <c r="M27" t="n">
-        <v>81.175576429958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>83.32405239259269</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>76.22522926425363</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>61.17746661948264</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>40.89551629595807</v>
       </c>
       <c r="R27" t="n">
         <v>19.89131833031826</v>
@@ -33262,28 +33262,28 @@
         <v>11.03043577938671</v>
       </c>
       <c r="J30" t="n">
-        <v>30.26835886926996</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>51.73344638085103</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>69.56200296287123</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>81.175576429958</v>
       </c>
       <c r="N30" t="n">
-        <v>83.32405239259269</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>76.22522926425363</v>
+        <v>15.31048398814744</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.89551629595807</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>19.89131833031826</v>
@@ -33411,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5987779368767351</v>
+        <v>0.5987779368767352</v>
       </c>
       <c r="H32" t="n">
-        <v>6.132234546038865</v>
+        <v>6.132234546038866</v>
       </c>
       <c r="I32" t="n">
-        <v>23.08438641144035</v>
+        <v>23.08438641144036</v>
       </c>
       <c r="J32" t="n">
-        <v>50.82052891999184</v>
+        <v>50.82052891999185</v>
       </c>
       <c r="K32" t="n">
-        <v>76.16679898798405</v>
+        <v>76.16679898798407</v>
       </c>
       <c r="L32" t="n">
-        <v>94.49164927367545</v>
+        <v>94.49164927367548</v>
       </c>
       <c r="M32" t="n">
         <v>105.1401664086071</v>
@@ -33438,22 +33438,22 @@
         <v>100.8873461119401</v>
       </c>
       <c r="P32" t="n">
-        <v>86.10501579529567</v>
+        <v>86.10501579529569</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.66128093089758</v>
+        <v>64.66128093089759</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733324</v>
+        <v>37.61298457733325</v>
       </c>
       <c r="S32" t="n">
         <v>13.64465223657862</v>
       </c>
       <c r="T32" t="n">
-        <v>2.621150418677909</v>
+        <v>2.62115041867791</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0479022349501388</v>
+        <v>0.04790223495013881</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.320374440471359</v>
+        <v>0.3203744404713591</v>
       </c>
       <c r="H33" t="n">
-        <v>3.094142622447073</v>
+        <v>3.094142622447074</v>
       </c>
       <c r="I33" t="n">
         <v>11.03043577938671</v>
       </c>
       <c r="J33" t="n">
-        <v>30.26835886926994</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>51.73344638085099</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>81.17557642995794</v>
       </c>
       <c r="N33" t="n">
-        <v>83.32405239259263</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>76.22522926425357</v>
+        <v>76.22522926425358</v>
       </c>
       <c r="P33" t="n">
-        <v>61.17746661948259</v>
+        <v>61.1774666194826</v>
       </c>
       <c r="Q33" t="n">
         <v>40.89551629595805</v>
@@ -33526,13 +33526,13 @@
         <v>19.89131833031825</v>
       </c>
       <c r="S33" t="n">
-        <v>5.95081471665002</v>
+        <v>5.950814716650021</v>
       </c>
       <c r="T33" t="n">
-        <v>1.291333819268328</v>
+        <v>1.291333819268329</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02107726582048415</v>
+        <v>0.02107726582048416</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>0.2685911688162242</v>
       </c>
       <c r="H34" t="n">
-        <v>2.388019664566067</v>
+        <v>2.388019664566068</v>
       </c>
       <c r="I34" t="n">
-        <v>8.077268967673362</v>
+        <v>8.077268967673364</v>
       </c>
       <c r="J34" t="n">
         <v>18.98939563530705</v>
       </c>
       <c r="K34" t="n">
-        <v>31.20541034064858</v>
+        <v>31.20541034064859</v>
       </c>
       <c r="L34" t="n">
-        <v>39.93218158927755</v>
+        <v>39.93218158927756</v>
       </c>
       <c r="M34" t="n">
         <v>42.1028865808923</v>
       </c>
       <c r="N34" t="n">
-        <v>41.10177404257731</v>
+        <v>41.10177404257733</v>
       </c>
       <c r="O34" t="n">
         <v>37.96414084322414</v>
@@ -33599,13 +33599,13 @@
         <v>32.48488099937314</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.49084778151128</v>
+        <v>22.49084778151129</v>
       </c>
       <c r="R34" t="n">
         <v>12.07683564513677</v>
       </c>
       <c r="S34" t="n">
-        <v>4.680811551097287</v>
+        <v>4.680811551097288</v>
       </c>
       <c r="T34" t="n">
         <v>1.147616812214776</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5987779368767354</v>
+        <v>0.5987779368767352</v>
       </c>
       <c r="H35" t="n">
-        <v>6.132234546038868</v>
+        <v>6.132234546038866</v>
       </c>
       <c r="I35" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144036</v>
       </c>
       <c r="J35" t="n">
-        <v>50.82052891999187</v>
+        <v>50.82052891999185</v>
       </c>
       <c r="K35" t="n">
-        <v>76.16679898798409</v>
+        <v>76.16679898798407</v>
       </c>
       <c r="L35" t="n">
-        <v>94.49164927367551</v>
+        <v>94.49164927367548</v>
       </c>
       <c r="M35" t="n">
         <v>105.1401664086071</v>
       </c>
       <c r="N35" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217581</v>
       </c>
       <c r="O35" t="n">
         <v>100.8873461119401</v>
       </c>
       <c r="P35" t="n">
-        <v>86.10501579529571</v>
+        <v>86.10501579529569</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.6612809308976</v>
+        <v>64.66128093089759</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733326</v>
+        <v>37.61298457733325</v>
       </c>
       <c r="S35" t="n">
         <v>13.64465223657862</v>
       </c>
       <c r="T35" t="n">
-        <v>2.621150418677911</v>
+        <v>2.62115041867791</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04790223495013882</v>
+        <v>0.04790223495013881</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3203744404713592</v>
+        <v>0.3203744404713591</v>
       </c>
       <c r="H36" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447074</v>
       </c>
       <c r="I36" t="n">
         <v>11.03043577938671</v>
       </c>
       <c r="J36" t="n">
-        <v>30.26835886926996</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>69.56200296287122</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>81.17557642995794</v>
       </c>
       <c r="N36" t="n">
-        <v>83.32405239259268</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>76.22522926425361</v>
+        <v>76.22522926425358</v>
       </c>
       <c r="P36" t="n">
-        <v>61.17746661948262</v>
+        <v>61.1774666194826</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>40.89551629595805</v>
       </c>
       <c r="R36" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031825</v>
       </c>
       <c r="S36" t="n">
-        <v>5.950814716650023</v>
+        <v>5.950814716650021</v>
       </c>
       <c r="T36" t="n">
         <v>1.291333819268329</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048416</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2685911688162243</v>
+        <v>0.2685911688162242</v>
       </c>
       <c r="H37" t="n">
-        <v>2.388019664566069</v>
+        <v>2.388019664566068</v>
       </c>
       <c r="I37" t="n">
-        <v>8.077268967673367</v>
+        <v>8.077268967673364</v>
       </c>
       <c r="J37" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530705</v>
       </c>
       <c r="K37" t="n">
-        <v>31.2054103406486</v>
+        <v>31.20541034064859</v>
       </c>
       <c r="L37" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927756</v>
       </c>
       <c r="M37" t="n">
-        <v>42.10288658089232</v>
+        <v>42.1028865808923</v>
       </c>
       <c r="N37" t="n">
-        <v>41.10177404257734</v>
+        <v>41.10177404257733</v>
       </c>
       <c r="O37" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322414</v>
       </c>
       <c r="P37" t="n">
-        <v>32.48488099937315</v>
+        <v>32.48488099937314</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151129</v>
       </c>
       <c r="R37" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513677</v>
       </c>
       <c r="S37" t="n">
-        <v>4.68081155109729</v>
+        <v>4.680811551097288</v>
       </c>
       <c r="T37" t="n">
         <v>1.147616812214776</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997588</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5987779368767354</v>
+        <v>0.5987779368767352</v>
       </c>
       <c r="H38" t="n">
-        <v>6.132234546038868</v>
+        <v>6.132234546038866</v>
       </c>
       <c r="I38" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144036</v>
       </c>
       <c r="J38" t="n">
-        <v>50.82052891999187</v>
+        <v>50.82052891999185</v>
       </c>
       <c r="K38" t="n">
-        <v>76.16679898798409</v>
+        <v>76.16679898798407</v>
       </c>
       <c r="L38" t="n">
-        <v>94.49164927367551</v>
+        <v>94.49164927367548</v>
       </c>
       <c r="M38" t="n">
         <v>105.1401664086071</v>
       </c>
       <c r="N38" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217581</v>
       </c>
       <c r="O38" t="n">
         <v>100.8873461119401</v>
       </c>
       <c r="P38" t="n">
-        <v>86.10501579529571</v>
+        <v>86.10501579529569</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.6612809308976</v>
+        <v>64.66128093089759</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733326</v>
+        <v>37.61298457733325</v>
       </c>
       <c r="S38" t="n">
         <v>13.64465223657862</v>
       </c>
       <c r="T38" t="n">
-        <v>2.621150418677911</v>
+        <v>2.62115041867791</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04790223495013882</v>
+        <v>0.04790223495013881</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3203744404713592</v>
+        <v>0.3203744404713591</v>
       </c>
       <c r="H39" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447074</v>
       </c>
       <c r="I39" t="n">
         <v>11.03043577938671</v>
       </c>
       <c r="J39" t="n">
-        <v>30.26835886926996</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>51.73344638085102</v>
+        <v>51.733446380851</v>
       </c>
       <c r="L39" t="n">
-        <v>69.56200296287122</v>
+        <v>69.5620029628712</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>81.17557642995794</v>
       </c>
       <c r="N39" t="n">
-        <v>83.32405239259268</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>76.22522926425361</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>61.17746661948262</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.89551629595807</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031825</v>
       </c>
       <c r="S39" t="n">
-        <v>5.950814716650023</v>
+        <v>5.950814716650021</v>
       </c>
       <c r="T39" t="n">
         <v>1.291333819268329</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048416</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2685911688162243</v>
+        <v>0.2685911688162242</v>
       </c>
       <c r="H40" t="n">
-        <v>2.388019664566069</v>
+        <v>2.388019664566068</v>
       </c>
       <c r="I40" t="n">
-        <v>8.077268967673367</v>
+        <v>8.077268967673364</v>
       </c>
       <c r="J40" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530705</v>
       </c>
       <c r="K40" t="n">
-        <v>31.2054103406486</v>
+        <v>31.20541034064859</v>
       </c>
       <c r="L40" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927756</v>
       </c>
       <c r="M40" t="n">
-        <v>42.10288658089232</v>
+        <v>42.1028865808923</v>
       </c>
       <c r="N40" t="n">
-        <v>41.10177404257734</v>
+        <v>41.10177404257733</v>
       </c>
       <c r="O40" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322414</v>
       </c>
       <c r="P40" t="n">
-        <v>32.48488099937315</v>
+        <v>32.48488099937314</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151129</v>
       </c>
       <c r="R40" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513677</v>
       </c>
       <c r="S40" t="n">
-        <v>4.68081155109729</v>
+        <v>4.680811551097288</v>
       </c>
       <c r="T40" t="n">
         <v>1.147616812214776</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997588</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5987779368767354</v>
+        <v>0.5987779368767352</v>
       </c>
       <c r="H41" t="n">
-        <v>6.132234546038868</v>
+        <v>6.132234546038866</v>
       </c>
       <c r="I41" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144036</v>
       </c>
       <c r="J41" t="n">
-        <v>50.82052891999187</v>
+        <v>50.82052891999185</v>
       </c>
       <c r="K41" t="n">
-        <v>76.16679898798409</v>
+        <v>76.16679898798407</v>
       </c>
       <c r="L41" t="n">
-        <v>94.49164927367551</v>
+        <v>94.49164927367548</v>
       </c>
       <c r="M41" t="n">
         <v>105.1401664086071</v>
       </c>
       <c r="N41" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217581</v>
       </c>
       <c r="O41" t="n">
         <v>100.8873461119401</v>
       </c>
       <c r="P41" t="n">
-        <v>86.10501579529571</v>
+        <v>86.10501579529569</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.6612809308976</v>
+        <v>64.66128093089759</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733326</v>
+        <v>37.61298457733325</v>
       </c>
       <c r="S41" t="n">
         <v>13.64465223657862</v>
       </c>
       <c r="T41" t="n">
-        <v>2.621150418677911</v>
+        <v>2.62115041867791</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04790223495013882</v>
+        <v>0.04790223495013881</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3203744404713592</v>
+        <v>0.3203744404713591</v>
       </c>
       <c r="H42" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447074</v>
       </c>
       <c r="I42" t="n">
         <v>11.03043577938671</v>
       </c>
       <c r="J42" t="n">
-        <v>30.26835886926996</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>51.73344638085102</v>
+        <v>51.733446380851</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>69.5620029628712</v>
       </c>
       <c r="M42" t="n">
-        <v>81.17557642995797</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>83.32405239259268</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>76.22522926425361</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.89551629595807</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031825</v>
       </c>
       <c r="S42" t="n">
-        <v>5.950814716650023</v>
+        <v>5.950814716650021</v>
       </c>
       <c r="T42" t="n">
         <v>1.291333819268329</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048416</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2685911688162243</v>
+        <v>0.2685911688162242</v>
       </c>
       <c r="H43" t="n">
-        <v>2.388019664566069</v>
+        <v>2.388019664566068</v>
       </c>
       <c r="I43" t="n">
-        <v>8.077268967673367</v>
+        <v>8.077268967673364</v>
       </c>
       <c r="J43" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530705</v>
       </c>
       <c r="K43" t="n">
-        <v>31.2054103406486</v>
+        <v>31.20541034064859</v>
       </c>
       <c r="L43" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927756</v>
       </c>
       <c r="M43" t="n">
-        <v>42.10288658089232</v>
+        <v>42.1028865808923</v>
       </c>
       <c r="N43" t="n">
-        <v>41.10177404257734</v>
+        <v>41.10177404257733</v>
       </c>
       <c r="O43" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322414</v>
       </c>
       <c r="P43" t="n">
-        <v>32.48488099937315</v>
+        <v>32.48488099937314</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151129</v>
       </c>
       <c r="R43" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513677</v>
       </c>
       <c r="S43" t="n">
-        <v>4.68081155109729</v>
+        <v>4.680811551097288</v>
       </c>
       <c r="T43" t="n">
         <v>1.147616812214776</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997588</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5987779368767358</v>
+        <v>0.598777936876735</v>
       </c>
       <c r="H44" t="n">
-        <v>6.132234546038871</v>
+        <v>6.132234546038863</v>
       </c>
       <c r="I44" t="n">
-        <v>23.08438641144038</v>
+        <v>23.08438641144035</v>
       </c>
       <c r="J44" t="n">
-        <v>50.8205289199919</v>
+        <v>50.82052891999183</v>
       </c>
       <c r="K44" t="n">
-        <v>76.16679898798414</v>
+        <v>76.16679898798404</v>
       </c>
       <c r="L44" t="n">
-        <v>94.49164927367556</v>
+        <v>94.49164927367543</v>
       </c>
       <c r="M44" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086071</v>
       </c>
       <c r="N44" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217581</v>
       </c>
       <c r="O44" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119401</v>
       </c>
       <c r="P44" t="n">
-        <v>86.10501579529577</v>
+        <v>86.10501579529566</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.66128093089765</v>
+        <v>64.66128093089756</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733329</v>
+        <v>37.61298457733324</v>
       </c>
       <c r="S44" t="n">
-        <v>13.64465223657863</v>
+        <v>13.64465223657861</v>
       </c>
       <c r="T44" t="n">
-        <v>2.621150418677912</v>
+        <v>2.621150418677909</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04790223495013885</v>
+        <v>0.04790223495013879</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3203744404713594</v>
+        <v>0.320374440471359</v>
       </c>
       <c r="H45" t="n">
-        <v>3.094142622447077</v>
+        <v>3.094142622447073</v>
       </c>
       <c r="I45" t="n">
-        <v>11.03043577938672</v>
+        <v>11.0304357793867</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085105</v>
+        <v>51.73344638085098</v>
       </c>
       <c r="L45" t="n">
-        <v>69.56200296287126</v>
+        <v>69.56200296287118</v>
       </c>
       <c r="M45" t="n">
-        <v>81.17557642995803</v>
+        <v>81.17557642995791</v>
       </c>
       <c r="N45" t="n">
-        <v>83.32405239259272</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>76.22522926425366</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>61.17746661948266</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>40.89551629595804</v>
       </c>
       <c r="R45" t="n">
-        <v>19.89131833031827</v>
+        <v>19.89131833031824</v>
       </c>
       <c r="S45" t="n">
-        <v>5.950814716650027</v>
+        <v>5.950814716650019</v>
       </c>
       <c r="T45" t="n">
-        <v>1.29133381926833</v>
+        <v>1.291333819268328</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02107726582048418</v>
+        <v>0.02107726582048415</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2685911688162245</v>
+        <v>0.2685911688162241</v>
       </c>
       <c r="H46" t="n">
-        <v>2.38801966456607</v>
+        <v>2.388019664566067</v>
       </c>
       <c r="I46" t="n">
-        <v>8.077268967673371</v>
+        <v>8.07726896767336</v>
       </c>
       <c r="J46" t="n">
-        <v>18.98939563530707</v>
+        <v>18.98939563530704</v>
       </c>
       <c r="K46" t="n">
-        <v>31.20541034064862</v>
+        <v>31.20541034064858</v>
       </c>
       <c r="L46" t="n">
-        <v>39.9321815892776</v>
+        <v>39.93218158927755</v>
       </c>
       <c r="M46" t="n">
-        <v>42.10288658089235</v>
+        <v>42.10288658089229</v>
       </c>
       <c r="N46" t="n">
-        <v>41.10177404257736</v>
+        <v>41.1017740425773</v>
       </c>
       <c r="O46" t="n">
-        <v>37.96414084322418</v>
+        <v>37.96414084322413</v>
       </c>
       <c r="P46" t="n">
-        <v>32.48488099937317</v>
+        <v>32.48488099937313</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.49084778151131</v>
+        <v>22.49084778151128</v>
       </c>
       <c r="R46" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513676</v>
       </c>
       <c r="S46" t="n">
-        <v>4.680811551097293</v>
+        <v>4.680811551097286</v>
       </c>
       <c r="T46" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214775</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0146504273899759</v>
+        <v>0.01465042738997588</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34716,7 +34716,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34783,22 +34783,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>511.9438211324538</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>205.7977317832976</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
@@ -35026,13 +35026,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>458.4811686460869</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>484.6198681696871</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35412,7 +35412,7 @@
         <v>154.8370651457834</v>
       </c>
       <c r="K11" t="n">
-        <v>375.686727348205</v>
+        <v>375.6867273482049</v>
       </c>
       <c r="L11" t="n">
         <v>514.5280963492731</v>
@@ -35421,16 +35421,16 @@
         <v>569.569244991284</v>
       </c>
       <c r="N11" t="n">
-        <v>551.4880144817512</v>
+        <v>551.4880144817511</v>
       </c>
       <c r="O11" t="n">
-        <v>461.8073954529165</v>
+        <v>461.8073954529164</v>
       </c>
       <c r="P11" t="n">
         <v>366.489274642408</v>
       </c>
       <c r="Q11" t="n">
-        <v>197.8154088745744</v>
+        <v>197.8154088745743</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>648.0511008337719</v>
+        <v>648.0511008337718</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>373.3530197833124</v>
       </c>
       <c r="O12" t="n">
         <v>534.8259789209864</v>
@@ -35509,7 +35509,7 @@
         <v>420.2230847355253</v>
       </c>
       <c r="Q12" t="n">
-        <v>242.9144019127008</v>
+        <v>243.7544161481621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>88.01980999467014</v>
+        <v>88.01980999467013</v>
       </c>
       <c r="L13" t="n">
         <v>172.6420850288075</v>
@@ -35588,7 +35588,7 @@
         <v>126.6648810756555</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.318574722805061</v>
+        <v>7.318574722805053</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.4548128621333</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>331.8517711180056</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3947964478579</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>458.95245791343</v>
       </c>
       <c r="N15" t="n">
-        <v>427.7147141349538</v>
+        <v>676.7092205013586</v>
       </c>
       <c r="O15" t="n">
         <v>534.8259789209864</v>
@@ -35746,7 +35746,7 @@
         <v>420.2230847355253</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>243.7544161481621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35825,7 +35825,7 @@
         <v>126.6648810756555</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.318574722805053</v>
+        <v>7.318574722805054</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,10 +35889,10 @@
         <v>375.6867273482049</v>
       </c>
       <c r="L17" t="n">
-        <v>514.528096349273</v>
+        <v>514.5280963492731</v>
       </c>
       <c r="M17" t="n">
-        <v>569.5692449912839</v>
+        <v>569.569244991284</v>
       </c>
       <c r="N17" t="n">
         <v>551.4880144817511</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.4548128621333</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>331.8517711180055</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3947964478578</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>427.7147141349539</v>
+        <v>648.0511008337719</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>487.6105775810167</v>
       </c>
       <c r="O18" t="n">
-        <v>534.8259789209862</v>
+        <v>534.8259789209864</v>
       </c>
       <c r="P18" t="n">
         <v>420.2230847355253</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>243.7544161481621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>88.01980999467011</v>
+        <v>88.01980999467013</v>
       </c>
       <c r="L19" t="n">
         <v>172.6420850288075</v>
@@ -36059,10 +36059,10 @@
         <v>170.8669155842314</v>
       </c>
       <c r="P19" t="n">
-        <v>126.6648810756554</v>
+        <v>126.6648810756555</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.318574722805041</v>
+        <v>7.318574722805054</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>154.8370651457834</v>
       </c>
       <c r="K20" t="n">
-        <v>375.6867273482048</v>
+        <v>375.6867273482049</v>
       </c>
       <c r="L20" t="n">
-        <v>514.528096349273</v>
+        <v>514.5280963492731</v>
       </c>
       <c r="M20" t="n">
-        <v>569.5692449912839</v>
+        <v>569.569244991284</v>
       </c>
       <c r="N20" t="n">
         <v>551.4880144817511</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>331.8517711180056</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3947964478578</v>
+        <v>500.3947964478579</v>
       </c>
       <c r="M21" t="n">
-        <v>648.0511008337718</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>676.7092205013586</v>
       </c>
       <c r="O21" t="n">
-        <v>534.8259789209862</v>
+        <v>47.27431147084851</v>
       </c>
       <c r="P21" t="n">
         <v>420.2230847355253</v>
       </c>
       <c r="Q21" t="n">
-        <v>230.9701972813212</v>
+        <v>243.7544161481621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>88.0198099946701</v>
+        <v>88.01980999467013</v>
       </c>
       <c r="L22" t="n">
         <v>172.6420850288075</v>
@@ -36296,10 +36296,10 @@
         <v>170.8669155842314</v>
       </c>
       <c r="P22" t="n">
-        <v>126.6648810756554</v>
+        <v>126.6648810756555</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.318574722805039</v>
+        <v>7.318574722805054</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>144.5259166669744</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>558.0125947793492</v>
+        <v>515.3256986144916</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>715.2883538306461</v>
       </c>
       <c r="N24" t="n">
         <v>745.7260435143695</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>51.67878421432559</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>277.6279320079687</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>374.7022807871404</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>745.7260435143695</v>
+        <v>394.8094942529461</v>
       </c>
       <c r="O27" t="n">
-        <v>280.7114599888213</v>
+        <v>597.9628884470627</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M30" t="n">
-        <v>377.7858087679932</v>
+        <v>715.2883538306461</v>
       </c>
       <c r="N30" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>537.0481431709566</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>277.6279320079687</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>144.5259166669744</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>374.7022807871403</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>285.8307365108738</v>
+        <v>715.288353830646</v>
       </c>
       <c r="N33" t="n">
-        <v>745.7260435143695</v>
+        <v>237.5337352016494</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>597.9628884470627</v>
       </c>
       <c r="P33" t="n">
         <v>470.8960208784699</v>
@@ -37247,7 +37247,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.94761179166376</v>
+        <v>25.94761179166377</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>438.7752394197637</v>
       </c>
       <c r="L35" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418864</v>
       </c>
       <c r="M35" t="n">
         <v>656.6562270596986</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>558.0125947793492</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>715.288353830646</v>
       </c>
       <c r="N36" t="n">
-        <v>745.7260435143695</v>
+        <v>237.5337352016494</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>597.9628884470627</v>
       </c>
       <c r="P36" t="n">
         <v>470.8960208784699</v>
       </c>
       <c r="Q36" t="n">
-        <v>201.7054367873188</v>
+        <v>277.6279320079686</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37469,10 +37469,10 @@
         <v>113.8670680274586</v>
       </c>
       <c r="L37" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112975</v>
       </c>
       <c r="M37" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336842</v>
       </c>
       <c r="N37" t="n">
         <v>226.1418084175361</v>
@@ -37484,7 +37484,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166377</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>438.7752394197637</v>
       </c>
       <c r="L38" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418864</v>
       </c>
       <c r="M38" t="n">
         <v>656.6562270596986</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>144.5259166669744</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>374.7022807871404</v>
+        <v>374.7022807871403</v>
       </c>
       <c r="L39" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>715.288353830646</v>
       </c>
       <c r="N39" t="n">
-        <v>153.2092288067999</v>
+        <v>537.0481431709566</v>
       </c>
       <c r="O39" t="n">
-        <v>597.9628884470627</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>470.8960208784699</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37706,10 +37706,10 @@
         <v>113.8670680274586</v>
       </c>
       <c r="L40" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112975</v>
       </c>
       <c r="M40" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336842</v>
       </c>
       <c r="N40" t="n">
         <v>226.1418084175361</v>
@@ -37721,7 +37721,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166377</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>438.7752394197637</v>
       </c>
       <c r="L41" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418864</v>
       </c>
       <c r="M41" t="n">
         <v>656.6562270596986</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>144.5259166669744</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>374.7022807871404</v>
+        <v>374.7022807871403</v>
       </c>
       <c r="L42" t="n">
-        <v>41.43840355869781</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M42" t="n">
-        <v>715.288353830646</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>745.7260435143695</v>
+        <v>618.2237196009145</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>277.6279320079687</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,10 +37943,10 @@
         <v>113.8670680274586</v>
       </c>
       <c r="L43" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112975</v>
       </c>
       <c r="M43" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336842</v>
       </c>
       <c r="N43" t="n">
         <v>226.1418084175361</v>
@@ -37958,7 +37958,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166377</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>196.9314106460809</v>
+        <v>196.9314106460808</v>
       </c>
       <c r="K44" t="n">
         <v>438.7752394197637</v>
       </c>
       <c r="L44" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418864</v>
       </c>
       <c r="M44" t="n">
-        <v>656.6562270596987</v>
+        <v>656.6562270596986</v>
       </c>
       <c r="N44" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666693</v>
       </c>
       <c r="O44" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577263</v>
       </c>
       <c r="P44" t="n">
-        <v>437.8095533018835</v>
+        <v>437.8095533018834</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.3739679419568</v>
+        <v>251.3739679419567</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>374.7022807871404</v>
+        <v>374.7022807871403</v>
       </c>
       <c r="L45" t="n">
-        <v>558.0125947793493</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M45" t="n">
-        <v>715.2883538306461</v>
+        <v>715.288353830646</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>259.420211162988</v>
       </c>
       <c r="O45" t="n">
-        <v>414.573285256651</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>277.6279320079686</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,13 +38177,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>113.8670680274586</v>
+        <v>113.8670680274585</v>
       </c>
       <c r="L46" t="n">
-        <v>205.7176764112976</v>
+        <v>205.7176764112975</v>
       </c>
       <c r="M46" t="n">
-        <v>230.2761980336843</v>
+        <v>230.2761980336842</v>
       </c>
       <c r="N46" t="n">
         <v>226.1418084175361</v>
@@ -38192,10 +38192,10 @@
         <v>202.312390380303</v>
       </c>
       <c r="P46" t="n">
-        <v>153.5719171373314</v>
+        <v>153.5719171373313</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.94761179166379</v>
+        <v>25.94761179166376</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
